--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m</t>
+          <t>http://purl.org/pact_funders</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m/</t>
+          <t>http://purl.org/pact_funders/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-01-29T20:06:06+00:00</t>
+          <t>2023-01-29T20:23:37+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-01-29T20:23:37+00:00</t>
+          <t>2023-08-17T11:19:58+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+          <t>skos:broader(separator=",")</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>test term</t>
+          <t>grant type</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1783,6 +1783,691 @@
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vocab.1001</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>repurposed</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vocab.1001</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>supplemented</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vocab.1001</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vocab:1004</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>unspecified</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vocab.1001,vocab.1007</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vocab:1005</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vocab.1001,vocab.1007</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>not known</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vocab.1001,vocab.1007</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>age group</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vocab:1008</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>adolescent</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vocab:1009</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>vocab:1010</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>fail elderly</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vocab:1012</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>infant</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vocab:1013</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>newborn</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-17T11:19:58+00:00</t>
+          <t>2023-08-17T11:30:47+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>vocab.1001</t>
+          <t>vocab.1000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>vocab.1001</t>
+          <t>vocab.1000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>vocab.1001</t>
+          <t>vocab.1000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>vocab.1001,vocab.1007</t>
+          <t>vocab.1000,vocab.1007</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>vocab.1001,vocab.1007</t>
+          <t>vocab.1000,vocab.1007</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>vocab.1001,vocab.1007</t>
+          <t>vocab.1000,vocab.1007</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-17T11:30:47+00:00</t>
+          <t>2023-08-17T11:35:01+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1748,7 +1748,11 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>vocab.1000</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1794,14 +1798,14 @@
           <t>new</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>vocab.1000</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>vocab.1000</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1847,14 +1851,14 @@
           <t>repurposed</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>vocab.1000</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>vocab.1000</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1900,14 +1904,14 @@
           <t>supplemented</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>vocab.1000</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>vocab.1000,vocab.1007</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1953,14 +1957,14 @@
           <t>unspecified</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>vocab.1000,vocab.1007</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>vocab.1000,vocab.1007</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -2006,14 +2010,14 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>vocab.1000,vocab.1007</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>vocab.1000,vocab.1007</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2059,11 +2063,7 @@
           <t>not known</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>vocab.1000,vocab.1007</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -2115,7 +2115,11 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2161,14 +2165,14 @@
           <t>adolescent</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>vocab.1007</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2214,14 +2218,14 @@
           <t>adult</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>vocab.1007</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2267,14 +2271,14 @@
           <t>fail elderly</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>vocab.1007</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2320,14 +2324,14 @@
           <t>child</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>vocab.1007</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2373,14 +2377,14 @@
           <t>infant</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>vocab.1007</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>vocab.1007</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2426,11 +2430,7 @@
           <t>newborn</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>vocab.1007</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-17T11:35:01+00:00</t>
+          <t>2023-08-17T12:13:29+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1750,7 +1750,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>vocab.1000</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1803,7 +1803,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>vocab.1000</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1856,7 +1856,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>vocab.1000</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1909,7 +1909,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>vocab.1000,vocab.1007</t>
+          <t>vocab:1000,vocab:1007</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1962,7 +1962,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>vocab.1000,vocab.1007</t>
+          <t>vocab:1000,vocab:1007</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2015,7 +2015,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>vocab.1000,vocab.1007</t>
+          <t>vocab:1000,vocab:1007</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>vocab.1007</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2170,7 +2170,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>vocab.1007</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2223,7 +2223,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>vocab.1007</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2276,7 +2276,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>vocab.1007</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2329,7 +2329,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>vocab.1007</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2382,7 +2382,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>vocab.1007</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -535,12 +535,12 @@
           <t>http://purl.org/pact_funders/</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -592,12 +592,12 @@
           <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -649,12 +649,12 @@
           <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -706,12 +706,12 @@
           <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -763,12 +763,12 @@
           <t>https://w3id.org/iadopt/ont/</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>I-ADOPT Ontology</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -820,14 +820,14 @@
           <t>https://w3id.org/env/puv#</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>A simple ontology which implements the Parameter Usage 
 Vocabulary semantic model, as described at 
 https://github.com/nvs-vocabs/P01.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -879,12 +879,12 @@
           <t>http://www.w3.org/ns/sosa/</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Semantic Sensor Network Ontology</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -989,12 +989,12 @@
           <t>http://qudt.org/schema/qudt/</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1046,12 +1046,12 @@
           <t>http://qudt.org/vocab/unit/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-17T12:13:29+00:00</t>
+          <t>2023-08-17T12:23:53+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1615,17 +1615,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>skos:definition@en</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1746,13 +1746,13 @@
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1799,13 +1799,13 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1905,13 +1905,13 @@
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>vocab:1000,vocab:1007</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>vocab:1000,vocab:1007</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1958,13 +1958,13 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>vocab:1000,vocab:1007</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>vocab:1000,vocab:1007</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>vocab:1000,vocab:1007</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>vocab:1000,vocab:1007</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2064,7 +2064,11 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>vocab:1000,vocab:1007</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -2113,13 +2117,13 @@
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2166,13 +2170,13 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2219,13 +2223,13 @@
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2272,13 +2276,13 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2325,13 +2329,13 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2378,13 +2382,13 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2431,7 +2435,11 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prefixes for controlled vocabularies, schema and ontologies</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vocab</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>http://purl.org/pact_funders/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -527,20 +539,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vocab</t>
+          <t>skos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/pact_funders/</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
-        </is>
-      </c>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -584,20 +596,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>skos</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
-        </is>
-      </c>
+          <t xml:space="preserve">http://purl.org/pav/ </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -641,20 +653,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/pav/ </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
-        </is>
-      </c>
+          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -698,20 +710,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>iop</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
-        </is>
-      </c>
+          <t>https://w3id.org/iadopt/ont/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>I-ADOPT Ontology</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -755,20 +767,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>iop</t>
+          <t>puv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>I-ADOPT Ontology</t>
-        </is>
-      </c>
+          <t>https://w3id.org/env/puv#</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A simple ontology which implements the Parameter Usage 
+Vocabulary semantic model, as described at 
+https://github.com/nvs-vocabs/P01.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -812,22 +826,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>puv</t>
+          <t>sosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://w3id.org/env/puv#</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>A simple ontology which implements the Parameter Usage 
-Vocabulary semantic model, as described at 
-https://github.com/nvs-vocabs/P01.</t>
-        </is>
-      </c>
+          <t>http://www.w3.org/ns/sosa/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Semantic Sensor Network Ontology</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -871,20 +883,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>xsd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/sosa/</t>
+          <t>http://www.w3.org/2001/XMLSchema#</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Semantic Sensor Network Ontology</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -928,15 +936,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>xsd</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2001/XMLSchema#</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -981,20 +993,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
-        </is>
-      </c>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1033,25 +1045,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -1090,11 +1098,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>dct:description</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vocabulary description</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Description of the controlled vocabulary</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1135,17 +1151,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vocabulary title</t>
+          <t>URL to the community developing vocab</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1188,17 +1204,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:description</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Vocabulary description</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1241,17 +1253,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>URL to the community developing vocab</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1294,13 +1306,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>dct:hasVersion^^xsd:string</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1343,17 +1359,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1396,17 +1412,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>2023-08-17T12:29:01+00:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1449,40 +1465,124 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -1502,19 +1602,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:datetime</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-17T12:23:53+00:00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Automatic update when vocabulary is updated</t>
-        </is>
-      </c>
+          <t>grant type</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1555,12 +1651,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1600,124 +1704,40 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
+          <t>repurposed</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -1737,18 +1757,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>vocab:1003</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>grant type</t>
+          <t>supplemented</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>vocab:1000,vocab:1007</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1790,18 +1810,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>vocab:1004</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>unspecified</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>vocab:1000,vocab:1007</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1843,18 +1863,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1005</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>repurposed</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>vocab:1000,vocab:1007</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1896,12 +1916,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1006</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>supplemented</t>
+          <t>not known</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1949,20 +1969,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vocab:1004</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>unspecified</t>
+          <t>age group</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>vocab:1000,vocab:1007</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -2002,18 +2018,18 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vocab:1005</t>
+          <t>vocab:1008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>adolescent</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2055,18 +2071,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vocab:1006</t>
+          <t>vocab:1009</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>not known</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2108,12 +2124,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vocab:1007</t>
+          <t>vocab:1010</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>age group</t>
+          <t>fail elderly</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -2161,12 +2177,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vocab:1008</t>
+          <t>vocab:1011</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>adolescent</t>
+          <t>child</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2214,12 +2230,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vocab:1009</t>
+          <t>vocab:1012</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>infant</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -2267,12 +2283,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>vocab:1010</t>
+          <t>vocab:1013</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>fail elderly</t>
+          <t>newborn</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2317,165 +2333,6 @@
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>child</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>vocab:1012</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>infant</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>vocab:1013</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>newborn</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-17T12:29:01+00:00</t>
+          <t>2023-08-17T13:26:49+00:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1821,7 +1821,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-17T13:26:49+00:00</t>
+          <t>2023-08-17T13:29:40+00:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1768,7 +1768,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>vocab:1000,vocab:1007</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-17T13:29:40+00:00</t>
+          <t>2023-08-22T12:07:50+00:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1821,7 +1821,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007</t>
+          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1078,vocab:1089,vocab:1099,vocab:1100,vocab:1147,vocab:1148,vocab:1154</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1874,7 +1874,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007</t>
+          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1058,vocab:1078,vocab:1147,vocab:1148,vocab:1154</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007</t>
+          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1058,vocab:1078,vocab:1089,vocab:1099,vocab:1100,vocab:1154</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adolescent</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -2033,7 +2033,11 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2076,7 +2080,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>babies</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2086,7 +2090,11 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2129,7 +2137,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>fail elderly</t>
+          <t>elderly</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -2139,7 +2147,11 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2182,7 +2194,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>neonates</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2192,7 +2204,11 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2235,7 +2251,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>infant</t>
+          <t>newborns</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -2245,7 +2261,11 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2288,7 +2308,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>newborn</t>
+          <t>prematures</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2298,7 +2318,11 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2333,6 +2357,8091 @@
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vocab:1014</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>primary school children</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vocab:1015</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>small children</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vocab:1016</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>teenager</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>very elderly</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vocab:1018</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>young adults</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>young people</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10038</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rurality</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>vocab:1021</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rural population</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vocab:1022</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>suburban population</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vocab:1023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>urban population</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>vulnerable populations</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>vocab:1025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>disabled persons</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>vocab:1026</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>drug users</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>vocab:1027</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>refugees</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>indigenous people</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>vocab:1029</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sexual and gender minorities</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>vocab:1030</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>prisoners</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vocab:1031</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sex workers</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>smokers</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vocab:1033</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vocab:1034</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>pregnant women</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vocab:1035</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>minority communities unspecified</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vocab:1036</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>vulnerable populations unspecified</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>occupational groups</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vocab:1038</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>farmers</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vocab:1039</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>emergency responders</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>vocab:1040</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>military personnel</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vocab:1041</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>social workers</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>vocab:1042</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>caregivers</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>vocab:1043</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>health personnel</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>vocab:1044</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>hospital personnel</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>vocab:1045</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>nurses and nursing staff</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>vocab:1046</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>physicians</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>vocab:1047</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>dentists and dental staff</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>vocab:1048</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>veterinarians</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>vocab:1049</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>volunteers</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>vocab:1050</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>studySubject</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>vocab:1051</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>humans</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>vocab:1050</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>vocab:1052</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>animals</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>vocab:1050</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>invertebrates</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>vocab:1050</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>vocab:1054</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>bacteria</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>vocab:1050</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>vocab:1055</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>viruses</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>vocab:1050</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>vocab:1056</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>organism forms</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>vocab:1050</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>vocab:1057</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>vocab:1050,vocab:1058,vocab:1089</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>studytype</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vocab:1059</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>case reports</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vocab:1060</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>clinical conference</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>vocab:1061</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>clinical study</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>vocab:1062</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>clinical trial</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>vocab:1063</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>comparative study</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>vocab:1064</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>consensus development conference</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
+      <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>vocab:1065</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>evaluation study</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>vocab:1066</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>meta-analysis</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>vocab:1067</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>multicenter study</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>vocab:1068</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>scientific integrity review</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vocab:1069</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>systematic review</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vocab:1070</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>validation study</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>vocab:1071</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>observational study</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>vocab:1072</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>biological specimen banks</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>policy report</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>vocab:1074</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>study, design unspecified</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>vocab:1075</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>vocab:1076</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>laboratory work</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>vocab:1077</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>secondary data analysis</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
+      <c r="AI98" t="inlineStr"/>
+      <c r="AJ98" t="inlineStr"/>
+      <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>clinical trial phase</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
+      <c r="AI99" t="inlineStr"/>
+      <c r="AJ99" t="inlineStr"/>
+      <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>vocab:1079</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>adaptive clinical trial</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
+      <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="inlineStr"/>
+      <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>vocab:1080</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>clinical trial, phase i</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
+      <c r="AI101" t="inlineStr"/>
+      <c r="AJ101" t="inlineStr"/>
+      <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>vocab:1081</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>clinical trial, phase ii</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="inlineStr"/>
+      <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>vocab:1082</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>clinical trial, phase iii</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
+      <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="inlineStr"/>
+      <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>vocab:1083</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>clinical trial, phase iv</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+      <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
+      <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>vocab:1084</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>controlled clinical trial</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
+      <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="inlineStr"/>
+      <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>vocab:1085</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>randomized controlled trial</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
+      <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="inlineStr"/>
+      <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>vocab:1086</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>clinical trial protocol</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="inlineStr"/>
+      <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>vocab:1087</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>clinical trial, veterinary</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr"/>
+      <c r="AI108" t="inlineStr"/>
+      <c r="AJ108" t="inlineStr"/>
+      <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>vocab:1088</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>randomized controlled trial, veterinary</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
+      <c r="AI109" t="inlineStr"/>
+      <c r="AJ109" t="inlineStr"/>
+      <c r="AK109" t="inlineStr"/>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>vocab:1089</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
+      <c r="AI110" t="inlineStr"/>
+      <c r="AJ110" t="inlineStr"/>
+      <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="inlineStr"/>
+      <c r="AM110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>vocab:1090</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>vocab:1089</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
+      <c r="AI111" t="inlineStr"/>
+      <c r="AJ111" t="inlineStr"/>
+      <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="inlineStr"/>
+      <c r="AM111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>vocab:1091</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>vocab:1089</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="inlineStr"/>
+      <c r="AH112" t="inlineStr"/>
+      <c r="AI112" t="inlineStr"/>
+      <c r="AJ112" t="inlineStr"/>
+      <c r="AK112" t="inlineStr"/>
+      <c r="AL112" t="inlineStr"/>
+      <c r="AM112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>vocab:1092</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>vocab:1089</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
+      <c r="AI113" t="inlineStr"/>
+      <c r="AJ113" t="inlineStr"/>
+      <c r="AK113" t="inlineStr"/>
+      <c r="AL113" t="inlineStr"/>
+      <c r="AM113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>vocab:1093</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>vocab:1089</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="inlineStr"/>
+      <c r="AI114" t="inlineStr"/>
+      <c r="AJ114" t="inlineStr"/>
+      <c r="AK114" t="inlineStr"/>
+      <c r="AL114" t="inlineStr"/>
+      <c r="AM114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>project information</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
+      <c r="AI115" t="inlineStr"/>
+      <c r="AJ115" t="inlineStr"/>
+      <c r="AK115" t="inlineStr"/>
+      <c r="AL115" t="inlineStr"/>
+      <c r="AM115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>funding organization name</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="inlineStr"/>
+      <c r="AH116" t="inlineStr"/>
+      <c r="AI116" t="inlineStr"/>
+      <c r="AJ116" t="inlineStr"/>
+      <c r="AK116" t="inlineStr"/>
+      <c r="AL116" t="inlineStr"/>
+      <c r="AM116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>vocab:1096</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>funder CrossRefID</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+      <c r="AG117" t="inlineStr"/>
+      <c r="AH117" t="inlineStr"/>
+      <c r="AI117" t="inlineStr"/>
+      <c r="AJ117" t="inlineStr"/>
+      <c r="AK117" t="inlineStr"/>
+      <c r="AL117" t="inlineStr"/>
+      <c r="AM117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>funder acronym</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+      <c r="AG118" t="inlineStr"/>
+      <c r="AH118" t="inlineStr"/>
+      <c r="AI118" t="inlineStr"/>
+      <c r="AJ118" t="inlineStr"/>
+      <c r="AK118" t="inlineStr"/>
+      <c r="AL118" t="inlineStr"/>
+      <c r="AM118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="inlineStr"/>
+      <c r="AH119" t="inlineStr"/>
+      <c r="AI119" t="inlineStr"/>
+      <c r="AJ119" t="inlineStr"/>
+      <c r="AK119" t="inlineStr"/>
+      <c r="AL119" t="inlineStr"/>
+      <c r="AM119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>regions</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr"/>
+      <c r="AH120" t="inlineStr"/>
+      <c r="AI120" t="inlineStr"/>
+      <c r="AJ120" t="inlineStr"/>
+      <c r="AK120" t="inlineStr"/>
+      <c r="AL120" t="inlineStr"/>
+      <c r="AM120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>subregions</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+      <c r="AG121" t="inlineStr"/>
+      <c r="AH121" t="inlineStr"/>
+      <c r="AI121" t="inlineStr"/>
+      <c r="AJ121" t="inlineStr"/>
+      <c r="AK121" t="inlineStr"/>
+      <c r="AL121" t="inlineStr"/>
+      <c r="AM121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>africa</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr"/>
+      <c r="AI122" t="inlineStr"/>
+      <c r="AJ122" t="inlineStr"/>
+      <c r="AK122" t="inlineStr"/>
+      <c r="AL122" t="inlineStr"/>
+      <c r="AM122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>americas</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
+      <c r="AI123" t="inlineStr"/>
+      <c r="AJ123" t="inlineStr"/>
+      <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>vocab:1103</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>south-east asia</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
+      <c r="AI124" t="inlineStr"/>
+      <c r="AJ124" t="inlineStr"/>
+      <c r="AK124" t="inlineStr"/>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>vocab:1104</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>europe</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
+      <c r="AI125" t="inlineStr"/>
+      <c r="AJ125" t="inlineStr"/>
+      <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>vocab:1105</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>eastern mediterranean</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
+      <c r="AI126" t="inlineStr"/>
+      <c r="AJ126" t="inlineStr"/>
+      <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>vocab:1106</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>western pacific</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
+      <c r="AI127" t="inlineStr"/>
+      <c r="AJ127" t="inlineStr"/>
+      <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
+      <c r="AH128" t="inlineStr"/>
+      <c r="AI128" t="inlineStr"/>
+      <c r="AJ128" t="inlineStr"/>
+      <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>vocab:1108</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>established market economies</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
+      <c r="AH129" t="inlineStr"/>
+      <c r="AI129" t="inlineStr"/>
+      <c r="AJ129" t="inlineStr"/>
+      <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>vocab:1109</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>formerly socialist economies of europe</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
+      <c r="AH130" t="inlineStr"/>
+      <c r="AI130" t="inlineStr"/>
+      <c r="AJ130" t="inlineStr"/>
+      <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>vocab:1110</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="inlineStr"/>
+      <c r="AG131" t="inlineStr"/>
+      <c r="AH131" t="inlineStr"/>
+      <c r="AI131" t="inlineStr"/>
+      <c r="AJ131" t="inlineStr"/>
+      <c r="AK131" t="inlineStr"/>
+      <c r="AL131" t="inlineStr"/>
+      <c r="AM131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>vocab:1111</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>latin america and the caribbean</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
+      <c r="AH132" t="inlineStr"/>
+      <c r="AI132" t="inlineStr"/>
+      <c r="AJ132" t="inlineStr"/>
+      <c r="AK132" t="inlineStr"/>
+      <c r="AL132" t="inlineStr"/>
+      <c r="AM132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>vocab:1112</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>middle east crescent</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+      <c r="AF133" t="inlineStr"/>
+      <c r="AG133" t="inlineStr"/>
+      <c r="AH133" t="inlineStr"/>
+      <c r="AI133" t="inlineStr"/>
+      <c r="AJ133" t="inlineStr"/>
+      <c r="AK133" t="inlineStr"/>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>vocab:1113</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>other asia and islands</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+      <c r="AF134" t="inlineStr"/>
+      <c r="AG134" t="inlineStr"/>
+      <c r="AH134" t="inlineStr"/>
+      <c r="AI134" t="inlineStr"/>
+      <c r="AJ134" t="inlineStr"/>
+      <c r="AK134" t="inlineStr"/>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>vocab:1114</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>sub-saharan africa</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="inlineStr"/>
+      <c r="AG135" t="inlineStr"/>
+      <c r="AH135" t="inlineStr"/>
+      <c r="AI135" t="inlineStr"/>
+      <c r="AJ135" t="inlineStr"/>
+      <c r="AK135" t="inlineStr"/>
+      <c r="AL135" t="inlineStr"/>
+      <c r="AM135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>vocab:1115</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="inlineStr"/>
+      <c r="AG136" t="inlineStr"/>
+      <c r="AH136" t="inlineStr"/>
+      <c r="AI136" t="inlineStr"/>
+      <c r="AJ136" t="inlineStr"/>
+      <c r="AK136" t="inlineStr"/>
+      <c r="AL136" t="inlineStr"/>
+      <c r="AM136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>vocab:1116</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>eastern asia</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="inlineStr"/>
+      <c r="AH137" t="inlineStr"/>
+      <c r="AI137" t="inlineStr"/>
+      <c r="AJ137" t="inlineStr"/>
+      <c r="AK137" t="inlineStr"/>
+      <c r="AL137" t="inlineStr"/>
+      <c r="AM137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>vocab:1117</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>southern asia</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="inlineStr"/>
+      <c r="AG138" t="inlineStr"/>
+      <c r="AH138" t="inlineStr"/>
+      <c r="AI138" t="inlineStr"/>
+      <c r="AJ138" t="inlineStr"/>
+      <c r="AK138" t="inlineStr"/>
+      <c r="AL138" t="inlineStr"/>
+      <c r="AM138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>vocab:1118</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>low and middle income countries of the african region</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+      <c r="AF139" t="inlineStr"/>
+      <c r="AG139" t="inlineStr"/>
+      <c r="AH139" t="inlineStr"/>
+      <c r="AI139" t="inlineStr"/>
+      <c r="AJ139" t="inlineStr"/>
+      <c r="AK139" t="inlineStr"/>
+      <c r="AL139" t="inlineStr"/>
+      <c r="AM139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>low and middle income countries of the americas</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="inlineStr"/>
+      <c r="AG140" t="inlineStr"/>
+      <c r="AH140" t="inlineStr"/>
+      <c r="AI140" t="inlineStr"/>
+      <c r="AJ140" t="inlineStr"/>
+      <c r="AK140" t="inlineStr"/>
+      <c r="AL140" t="inlineStr"/>
+      <c r="AM140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>vocab:1120</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>low and middle income countries of the eastern mediterranean region</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+      <c r="AF141" t="inlineStr"/>
+      <c r="AG141" t="inlineStr"/>
+      <c r="AH141" t="inlineStr"/>
+      <c r="AI141" t="inlineStr"/>
+      <c r="AJ141" t="inlineStr"/>
+      <c r="AK141" t="inlineStr"/>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>vocab:1121</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>low and middle income countries of the european region</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+      <c r="AF142" t="inlineStr"/>
+      <c r="AG142" t="inlineStr"/>
+      <c r="AH142" t="inlineStr"/>
+      <c r="AI142" t="inlineStr"/>
+      <c r="AJ142" t="inlineStr"/>
+      <c r="AK142" t="inlineStr"/>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>vocab:1122</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>low and middle income countries of the south-east asia region</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+      <c r="AF143" t="inlineStr"/>
+      <c r="AG143" t="inlineStr"/>
+      <c r="AH143" t="inlineStr"/>
+      <c r="AI143" t="inlineStr"/>
+      <c r="AJ143" t="inlineStr"/>
+      <c r="AK143" t="inlineStr"/>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>vocab:1123</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+      <c r="AF144" t="inlineStr"/>
+      <c r="AG144" t="inlineStr"/>
+      <c r="AH144" t="inlineStr"/>
+      <c r="AI144" t="inlineStr"/>
+      <c r="AJ144" t="inlineStr"/>
+      <c r="AK144" t="inlineStr"/>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>vocab:1124</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>low and middle income countries of the western pacific region</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="inlineStr"/>
+      <c r="AG145" t="inlineStr"/>
+      <c r="AH145" t="inlineStr"/>
+      <c r="AI145" t="inlineStr"/>
+      <c r="AJ145" t="inlineStr"/>
+      <c r="AK145" t="inlineStr"/>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>vocab:1125</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>high-income countries</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="inlineStr"/>
+      <c r="AG146" t="inlineStr"/>
+      <c r="AH146" t="inlineStr"/>
+      <c r="AI146" t="inlineStr"/>
+      <c r="AJ146" t="inlineStr"/>
+      <c r="AK146" t="inlineStr"/>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>vocab:1126</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>asia pacific high-income</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="inlineStr"/>
+      <c r="AG147" t="inlineStr"/>
+      <c r="AH147" t="inlineStr"/>
+      <c r="AI147" t="inlineStr"/>
+      <c r="AJ147" t="inlineStr"/>
+      <c r="AK147" t="inlineStr"/>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>vocab:1127</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>asia central</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="inlineStr"/>
+      <c r="AG148" t="inlineStr"/>
+      <c r="AH148" t="inlineStr"/>
+      <c r="AI148" t="inlineStr"/>
+      <c r="AJ148" t="inlineStr"/>
+      <c r="AK148" t="inlineStr"/>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>vocab:1128</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>asia east</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="inlineStr"/>
+      <c r="AG149" t="inlineStr"/>
+      <c r="AH149" t="inlineStr"/>
+      <c r="AI149" t="inlineStr"/>
+      <c r="AJ149" t="inlineStr"/>
+      <c r="AK149" t="inlineStr"/>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>vocab:1129</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>asia south</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="inlineStr"/>
+      <c r="AG150" t="inlineStr"/>
+      <c r="AH150" t="inlineStr"/>
+      <c r="AI150" t="inlineStr"/>
+      <c r="AJ150" t="inlineStr"/>
+      <c r="AK150" t="inlineStr"/>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>vocab:1130</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>asia southeast</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="inlineStr"/>
+      <c r="AG151" t="inlineStr"/>
+      <c r="AH151" t="inlineStr"/>
+      <c r="AI151" t="inlineStr"/>
+      <c r="AJ151" t="inlineStr"/>
+      <c r="AK151" t="inlineStr"/>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>vocab:1131</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>australasia</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="inlineStr"/>
+      <c r="AG152" t="inlineStr"/>
+      <c r="AH152" t="inlineStr"/>
+      <c r="AI152" t="inlineStr"/>
+      <c r="AJ152" t="inlineStr"/>
+      <c r="AK152" t="inlineStr"/>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>vocab:1132</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>caribbean</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="inlineStr"/>
+      <c r="AG153" t="inlineStr"/>
+      <c r="AH153" t="inlineStr"/>
+      <c r="AI153" t="inlineStr"/>
+      <c r="AJ153" t="inlineStr"/>
+      <c r="AK153" t="inlineStr"/>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>vocab:1133</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>europe central</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="inlineStr"/>
+      <c r="AG154" t="inlineStr"/>
+      <c r="AH154" t="inlineStr"/>
+      <c r="AI154" t="inlineStr"/>
+      <c r="AJ154" t="inlineStr"/>
+      <c r="AK154" t="inlineStr"/>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>vocab:1134</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>europe eastern</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr"/>
+      <c r="AG155" t="inlineStr"/>
+      <c r="AH155" t="inlineStr"/>
+      <c r="AI155" t="inlineStr"/>
+      <c r="AJ155" t="inlineStr"/>
+      <c r="AK155" t="inlineStr"/>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>vocab:1135</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>europe western</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="inlineStr"/>
+      <c r="AG156" t="inlineStr"/>
+      <c r="AH156" t="inlineStr"/>
+      <c r="AI156" t="inlineStr"/>
+      <c r="AJ156" t="inlineStr"/>
+      <c r="AK156" t="inlineStr"/>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>vocab:1136</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>latin america andean</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+      <c r="AG157" t="inlineStr"/>
+      <c r="AH157" t="inlineStr"/>
+      <c r="AI157" t="inlineStr"/>
+      <c r="AJ157" t="inlineStr"/>
+      <c r="AK157" t="inlineStr"/>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>vocab:1137</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>latin america central</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+      <c r="AG158" t="inlineStr"/>
+      <c r="AH158" t="inlineStr"/>
+      <c r="AI158" t="inlineStr"/>
+      <c r="AJ158" t="inlineStr"/>
+      <c r="AK158" t="inlineStr"/>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>vocab:1138</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>latin america southern</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="inlineStr"/>
+      <c r="AG159" t="inlineStr"/>
+      <c r="AH159" t="inlineStr"/>
+      <c r="AI159" t="inlineStr"/>
+      <c r="AJ159" t="inlineStr"/>
+      <c r="AK159" t="inlineStr"/>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>vocab:1139</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>latin america tropical</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr"/>
+      <c r="AG160" t="inlineStr"/>
+      <c r="AH160" t="inlineStr"/>
+      <c r="AI160" t="inlineStr"/>
+      <c r="AJ160" t="inlineStr"/>
+      <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>vocab:1140</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>north africa/middle east</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="inlineStr"/>
+      <c r="AG161" t="inlineStr"/>
+      <c r="AH161" t="inlineStr"/>
+      <c r="AI161" t="inlineStr"/>
+      <c r="AJ161" t="inlineStr"/>
+      <c r="AK161" t="inlineStr"/>
+      <c r="AL161" t="inlineStr"/>
+      <c r="AM161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>vocab:1141</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>north america high-income</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="inlineStr"/>
+      <c r="AG162" t="inlineStr"/>
+      <c r="AH162" t="inlineStr"/>
+      <c r="AI162" t="inlineStr"/>
+      <c r="AJ162" t="inlineStr"/>
+      <c r="AK162" t="inlineStr"/>
+      <c r="AL162" t="inlineStr"/>
+      <c r="AM162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>vocab:1142</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>oceania</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="inlineStr"/>
+      <c r="AG163" t="inlineStr"/>
+      <c r="AH163" t="inlineStr"/>
+      <c r="AI163" t="inlineStr"/>
+      <c r="AJ163" t="inlineStr"/>
+      <c r="AK163" t="inlineStr"/>
+      <c r="AL163" t="inlineStr"/>
+      <c r="AM163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>vocab:1143</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>sub-saharan africa central</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="inlineStr"/>
+      <c r="AG164" t="inlineStr"/>
+      <c r="AH164" t="inlineStr"/>
+      <c r="AI164" t="inlineStr"/>
+      <c r="AJ164" t="inlineStr"/>
+      <c r="AK164" t="inlineStr"/>
+      <c r="AL164" t="inlineStr"/>
+      <c r="AM164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>vocab:1144</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>sub-saharan africa east</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="inlineStr"/>
+      <c r="AG165" t="inlineStr"/>
+      <c r="AH165" t="inlineStr"/>
+      <c r="AI165" t="inlineStr"/>
+      <c r="AJ165" t="inlineStr"/>
+      <c r="AK165" t="inlineStr"/>
+      <c r="AL165" t="inlineStr"/>
+      <c r="AM165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>vocab:1145</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>sub-saharan africa southern</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="inlineStr"/>
+      <c r="AG166" t="inlineStr"/>
+      <c r="AH166" t="inlineStr"/>
+      <c r="AI166" t="inlineStr"/>
+      <c r="AJ166" t="inlineStr"/>
+      <c r="AK166" t="inlineStr"/>
+      <c r="AL166" t="inlineStr"/>
+      <c r="AM166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>vocab:1146</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>sub-saharan africa west</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="inlineStr"/>
+      <c r="AG167" t="inlineStr"/>
+      <c r="AH167" t="inlineStr"/>
+      <c r="AI167" t="inlineStr"/>
+      <c r="AJ167" t="inlineStr"/>
+      <c r="AK167" t="inlineStr"/>
+      <c r="AL167" t="inlineStr"/>
+      <c r="AM167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>vocab:1147</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>research institution</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="inlineStr"/>
+      <c r="AG168" t="inlineStr"/>
+      <c r="AH168" t="inlineStr"/>
+      <c r="AI168" t="inlineStr"/>
+      <c r="AJ168" t="inlineStr"/>
+      <c r="AK168" t="inlineStr"/>
+      <c r="AL168" t="inlineStr"/>
+      <c r="AM168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>vocab:1148</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>partner organization</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="inlineStr"/>
+      <c r="AG169" t="inlineStr"/>
+      <c r="AH169" t="inlineStr"/>
+      <c r="AI169" t="inlineStr"/>
+      <c r="AJ169" t="inlineStr"/>
+      <c r="AK169" t="inlineStr"/>
+      <c r="AL169" t="inlineStr"/>
+      <c r="AM169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>vocab:1149</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>partner organization name</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>vocab:1148</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="inlineStr"/>
+      <c r="AH170" t="inlineStr"/>
+      <c r="AI170" t="inlineStr"/>
+      <c r="AJ170" t="inlineStr"/>
+      <c r="AK170" t="inlineStr"/>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>vocab:1150</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>partner organization identification</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>vocab:1148</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="inlineStr"/>
+      <c r="AH171" t="inlineStr"/>
+      <c r="AI171" t="inlineStr"/>
+      <c r="AJ171" t="inlineStr"/>
+      <c r="AK171" t="inlineStr"/>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>vocab:1151</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>partner organization country</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>vocab:1148</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="inlineStr"/>
+      <c r="AH172" t="inlineStr"/>
+      <c r="AI172" t="inlineStr"/>
+      <c r="AJ172" t="inlineStr"/>
+      <c r="AK172" t="inlineStr"/>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>research institution name</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>vocab:1147</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="inlineStr"/>
+      <c r="AH173" t="inlineStr"/>
+      <c r="AI173" t="inlineStr"/>
+      <c r="AJ173" t="inlineStr"/>
+      <c r="AK173" t="inlineStr"/>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>vocab:1153</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>research institution location</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>vocab:1147</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="inlineStr"/>
+      <c r="AG174" t="inlineStr"/>
+      <c r="AH174" t="inlineStr"/>
+      <c r="AI174" t="inlineStr"/>
+      <c r="AJ174" t="inlineStr"/>
+      <c r="AK174" t="inlineStr"/>
+      <c r="AL174" t="inlineStr"/>
+      <c r="AM174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>vocab:1154</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>WHO GHO bservatory Framework</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="inlineStr"/>
+      <c r="AG175" t="inlineStr"/>
+      <c r="AH175" t="inlineStr"/>
+      <c r="AI175" t="inlineStr"/>
+      <c r="AJ175" t="inlineStr"/>
+      <c r="AK175" t="inlineStr"/>
+      <c r="AL175" t="inlineStr"/>
+      <c r="AM175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>vocab:1155</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>vocab:1154</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+      <c r="AG176" t="inlineStr"/>
+      <c r="AH176" t="inlineStr"/>
+      <c r="AI176" t="inlineStr"/>
+      <c r="AJ176" t="inlineStr"/>
+      <c r="AK176" t="inlineStr"/>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>vocab:1156</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>vocab:1154</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr"/>
+      <c r="AF177" t="inlineStr"/>
+      <c r="AG177" t="inlineStr"/>
+      <c r="AH177" t="inlineStr"/>
+      <c r="AI177" t="inlineStr"/>
+      <c r="AJ177" t="inlineStr"/>
+      <c r="AK177" t="inlineStr"/>
+      <c r="AL177" t="inlineStr"/>
+      <c r="AM177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>vocab:1157</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Drug Development</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+      <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr"/>
+      <c r="AI178" t="inlineStr"/>
+      <c r="AJ178" t="inlineStr"/>
+      <c r="AK178" t="inlineStr"/>
+      <c r="AL178" t="inlineStr"/>
+      <c r="AM178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>vocab:1158</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Diagnostics/Screening</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="inlineStr"/>
+      <c r="AG179" t="inlineStr"/>
+      <c r="AH179" t="inlineStr"/>
+      <c r="AI179" t="inlineStr"/>
+      <c r="AJ179" t="inlineStr"/>
+      <c r="AK179" t="inlineStr"/>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>vocab:1159</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Device</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr"/>
+      <c r="AF180" t="inlineStr"/>
+      <c r="AG180" t="inlineStr"/>
+      <c r="AH180" t="inlineStr"/>
+      <c r="AI180" t="inlineStr"/>
+      <c r="AJ180" t="inlineStr"/>
+      <c r="AK180" t="inlineStr"/>
+      <c r="AL180" t="inlineStr"/>
+      <c r="AM180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>vocab:1160</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Vaccine</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr"/>
+      <c r="AF181" t="inlineStr"/>
+      <c r="AG181" t="inlineStr"/>
+      <c r="AH181" t="inlineStr"/>
+      <c r="AI181" t="inlineStr"/>
+      <c r="AJ181" t="inlineStr"/>
+      <c r="AK181" t="inlineStr"/>
+      <c r="AL181" t="inlineStr"/>
+      <c r="AM181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>vocab:1161</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Vector Control</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr"/>
+      <c r="AF182" t="inlineStr"/>
+      <c r="AG182" t="inlineStr"/>
+      <c r="AH182" t="inlineStr"/>
+      <c r="AI182" t="inlineStr"/>
+      <c r="AJ182" t="inlineStr"/>
+      <c r="AK182" t="inlineStr"/>
+      <c r="AL182" t="inlineStr"/>
+      <c r="AM182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>vocab:1162</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Basic Science</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr"/>
+      <c r="AI183" t="inlineStr"/>
+      <c r="AJ183" t="inlineStr"/>
+      <c r="AK183" t="inlineStr"/>
+      <c r="AL183" t="inlineStr"/>
+      <c r="AM183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>vocab:1163</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr"/>
+      <c r="AF184" t="inlineStr"/>
+      <c r="AG184" t="inlineStr"/>
+      <c r="AH184" t="inlineStr"/>
+      <c r="AI184" t="inlineStr"/>
+      <c r="AJ184" t="inlineStr"/>
+      <c r="AK184" t="inlineStr"/>
+      <c r="AL184" t="inlineStr"/>
+      <c r="AM184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>vocab:1164</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Implementation</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="inlineStr"/>
+      <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
+      <c r="AI185" t="inlineStr"/>
+      <c r="AJ185" t="inlineStr"/>
+      <c r="AK185" t="inlineStr"/>
+      <c r="AL185" t="inlineStr"/>
+      <c r="AM185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>vocab:1165</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Evaluation</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+      <c r="AI186" t="inlineStr"/>
+      <c r="AJ186" t="inlineStr"/>
+      <c r="AK186" t="inlineStr"/>
+      <c r="AL186" t="inlineStr"/>
+      <c r="AM186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>No research category assigned</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
+      <c r="AI187" t="inlineStr"/>
+      <c r="AJ187" t="inlineStr"/>
+      <c r="AK187" t="inlineStr"/>
+      <c r="AL187" t="inlineStr"/>
+      <c r="AM187" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM187"/>
+  <dimension ref="A1:AM205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-22T12:07:50+00:00</t>
+          <t>2023-08-22T13:09:45+00:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1874,7 +1874,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1058,vocab:1078,vocab:1147,vocab:1148,vocab:1154</t>
+          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1058,vocab:1078,vocab:1147,vocab:1148,vocab:1154,vocab:1178</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1058,vocab:1078,vocab:1089,vocab:1099,vocab:1100,vocab:1154</t>
+          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1058,vocab:1078,vocab:1089,vocab:1099,vocab:1100,vocab:1154,vocab:1178</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -4658,7 +4658,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vocab:1050,vocab:1058,vocab:1089</t>
+          <t>vocab:1050,vocab:1058,vocab:1089,vocab:1166,vocab:1178</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cause</t>
+          <t>cause</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Solution</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -9920,13 +9920,13 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Drug Development</t>
+          <t>drug development</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -9973,13 +9973,13 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Diagnostics/Screening</t>
+          <t>diagnostics/screening</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -10026,13 +10026,13 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>device</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -10079,13 +10079,13 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Vaccine</t>
+          <t>vaccine</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -10132,13 +10132,13 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Vector Control</t>
+          <t>vector control</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -10185,13 +10185,13 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Basic Science</t>
+          <t>basic Science</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -10238,13 +10238,13 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -10291,13 +10291,13 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Implementation</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -10344,13 +10344,13 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Evaluation</t>
+          <t>no research category assigned</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -10397,15 +10397,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>No research category assigned</t>
+          <t>disease</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>vocab:1152</t>
-        </is>
-      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
@@ -10442,6 +10438,964 @@
       <c r="AL187" t="inlineStr"/>
       <c r="AM187" t="inlineStr"/>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>vocab:1167</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>COVID-19</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10270</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+      <c r="AI188" t="inlineStr"/>
+      <c r="AJ188" t="inlineStr"/>
+      <c r="AK188" t="inlineStr"/>
+      <c r="AL188" t="inlineStr"/>
+      <c r="AM188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>vocab:1168</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Crimean-Congo haemorrhagic fever</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+      <c r="AI189" t="inlineStr"/>
+      <c r="AJ189" t="inlineStr"/>
+      <c r="AK189" t="inlineStr"/>
+      <c r="AL189" t="inlineStr"/>
+      <c r="AM189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>vocab:1169</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Ebola virus disease</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+      <c r="AI190" t="inlineStr"/>
+      <c r="AJ190" t="inlineStr"/>
+      <c r="AK190" t="inlineStr"/>
+      <c r="AL190" t="inlineStr"/>
+      <c r="AM190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>vocab:1170</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Marburg virus disease</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr"/>
+      <c r="AE191" t="inlineStr"/>
+      <c r="AF191" t="inlineStr"/>
+      <c r="AG191" t="inlineStr"/>
+      <c r="AH191" t="inlineStr"/>
+      <c r="AI191" t="inlineStr"/>
+      <c r="AJ191" t="inlineStr"/>
+      <c r="AK191" t="inlineStr"/>
+      <c r="AL191" t="inlineStr"/>
+      <c r="AM191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>vocab:1171</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Lassa fever</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr"/>
+      <c r="AF192" t="inlineStr"/>
+      <c r="AG192" t="inlineStr"/>
+      <c r="AH192" t="inlineStr"/>
+      <c r="AI192" t="inlineStr"/>
+      <c r="AJ192" t="inlineStr"/>
+      <c r="AK192" t="inlineStr"/>
+      <c r="AL192" t="inlineStr"/>
+      <c r="AM192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Middle East Respiratory Syndrome Coronavirus (MERS-CoV)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr"/>
+      <c r="AE193" t="inlineStr"/>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
+      <c r="AI193" t="inlineStr"/>
+      <c r="AJ193" t="inlineStr"/>
+      <c r="AK193" t="inlineStr"/>
+      <c r="AL193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Severe Acute Respiratory Syndrome (SARS)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr"/>
+      <c r="AE194" t="inlineStr"/>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
+      <c r="AI194" t="inlineStr"/>
+      <c r="AJ194" t="inlineStr"/>
+      <c r="AK194" t="inlineStr"/>
+      <c r="AL194" t="inlineStr"/>
+      <c r="AM194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>vocab:1174</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Nipah and henipaviral disease</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr"/>
+      <c r="AE195" t="inlineStr"/>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
+      <c r="AI195" t="inlineStr"/>
+      <c r="AJ195" t="inlineStr"/>
+      <c r="AK195" t="inlineStr"/>
+      <c r="AL195" t="inlineStr"/>
+      <c r="AM195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Rift Valley Fever</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr"/>
+      <c r="AE196" t="inlineStr"/>
+      <c r="AF196" t="inlineStr"/>
+      <c r="AG196" t="inlineStr"/>
+      <c r="AH196" t="inlineStr"/>
+      <c r="AI196" t="inlineStr"/>
+      <c r="AJ196" t="inlineStr"/>
+      <c r="AK196" t="inlineStr"/>
+      <c r="AL196" t="inlineStr"/>
+      <c r="AM196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>vocab:1176</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Zika</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr"/>
+      <c r="AE197" t="inlineStr"/>
+      <c r="AF197" t="inlineStr"/>
+      <c r="AG197" t="inlineStr"/>
+      <c r="AH197" t="inlineStr"/>
+      <c r="AI197" t="inlineStr"/>
+      <c r="AJ197" t="inlineStr"/>
+      <c r="AK197" t="inlineStr"/>
+      <c r="AL197" t="inlineStr"/>
+      <c r="AM197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>vocab:1177</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Congenital Zika virus disease</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr"/>
+      <c r="AE198" t="inlineStr"/>
+      <c r="AF198" t="inlineStr"/>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+      <c r="AI198" t="inlineStr"/>
+      <c r="AJ198" t="inlineStr"/>
+      <c r="AK198" t="inlineStr"/>
+      <c r="AL198" t="inlineStr"/>
+      <c r="AM198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>vocab:1178</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>pathogens</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr"/>
+      <c r="AE199" t="inlineStr"/>
+      <c r="AF199" t="inlineStr"/>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+      <c r="AI199" t="inlineStr"/>
+      <c r="AJ199" t="inlineStr"/>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>vocab:1179</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Coronavirus</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>vocab:1178</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr"/>
+      <c r="AE200" t="inlineStr"/>
+      <c r="AF200" t="inlineStr"/>
+      <c r="AG200" t="inlineStr"/>
+      <c r="AH200" t="inlineStr"/>
+      <c r="AI200" t="inlineStr"/>
+      <c r="AJ200" t="inlineStr"/>
+      <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="inlineStr"/>
+      <c r="AM200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>vocab:1180</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SARS-CoV</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>vocab:1178</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr"/>
+      <c r="AE201" t="inlineStr"/>
+      <c r="AF201" t="inlineStr"/>
+      <c r="AG201" t="inlineStr"/>
+      <c r="AH201" t="inlineStr"/>
+      <c r="AI201" t="inlineStr"/>
+      <c r="AJ201" t="inlineStr"/>
+      <c r="AK201" t="inlineStr"/>
+      <c r="AL201" t="inlineStr"/>
+      <c r="AM201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>vocab:1181</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SARSr-CoV</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>vocab:1178</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
+      <c r="Z202" t="inlineStr"/>
+      <c r="AA202" t="inlineStr"/>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr"/>
+      <c r="AE202" t="inlineStr"/>
+      <c r="AF202" t="inlineStr"/>
+      <c r="AG202" t="inlineStr"/>
+      <c r="AH202" t="inlineStr"/>
+      <c r="AI202" t="inlineStr"/>
+      <c r="AJ202" t="inlineStr"/>
+      <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr"/>
+      <c r="AM202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>vocab:1182</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>vocab:1178</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10269</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr"/>
+      <c r="AE203" t="inlineStr"/>
+      <c r="AF203" t="inlineStr"/>
+      <c r="AG203" t="inlineStr"/>
+      <c r="AH203" t="inlineStr"/>
+      <c r="AI203" t="inlineStr"/>
+      <c r="AJ203" t="inlineStr"/>
+      <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>vocab:1183</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SARS-CoV-1</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>vocab:1178</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr"/>
+      <c r="AE204" t="inlineStr"/>
+      <c r="AF204" t="inlineStr"/>
+      <c r="AG204" t="inlineStr"/>
+      <c r="AH204" t="inlineStr"/>
+      <c r="AI204" t="inlineStr"/>
+      <c r="AJ204" t="inlineStr"/>
+      <c r="AK204" t="inlineStr"/>
+      <c r="AL204" t="inlineStr"/>
+      <c r="AM204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>vocab:1184</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MERS-CoV</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>vocab:1178</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+      <c r="AE205" t="inlineStr"/>
+      <c r="AF205" t="inlineStr"/>
+      <c r="AG205" t="inlineStr"/>
+      <c r="AH205" t="inlineStr"/>
+      <c r="AI205" t="inlineStr"/>
+      <c r="AJ205" t="inlineStr"/>
+      <c r="AK205" t="inlineStr"/>
+      <c r="AL205" t="inlineStr"/>
+      <c r="AM205" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM205"/>
+  <dimension ref="A1:AN229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,7 @@
       <c r="AK1" t="inlineStr"/>
       <c r="AL1" t="inlineStr"/>
       <c r="AM1" t="inlineStr"/>
+      <c r="AN1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,12 +491,12 @@
           <t>http://purl.org/pact_funders/</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -530,6 +531,7 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,12 +549,12 @@
           <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -587,6 +589,7 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -604,12 +607,12 @@
           <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -644,6 +647,7 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -661,12 +665,12 @@
           <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -701,6 +705,7 @@
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -718,12 +723,12 @@
           <t>https://w3id.org/iadopt/ont/</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>I-ADOPT Ontology</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -758,6 +763,7 @@
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -775,14 +781,14 @@
           <t>https://w3id.org/env/puv#</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>A simple ontology which implements the Parameter Usage 
 Vocabulary semantic model, as described at 
 https://github.com/nvs-vocabs/P01.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -817,6 +823,7 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -834,12 +841,12 @@
           <t>http://www.w3.org/ns/sosa/</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Semantic Sensor Network Ontology</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -874,6 +881,7 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -927,6 +935,7 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -944,12 +953,12 @@
           <t>http://qudt.org/schema/qudt/</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -984,6 +993,7 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1001,12 +1011,12 @@
           <t>http://qudt.org/vocab/unit/</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1041,21 +1051,22 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vocabulary title</t>
+          <t>rdf</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
+          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1094,21 +1105,22 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vocabulary description</t>
+          <t>rdfs</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>http://www.w3.org/2000/01/rdf-schema#</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1147,21 +1159,22 @@
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>URL to the community developing vocab</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1200,17 +1213,22 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>dct:description</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vocabulary description</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1249,21 +1267,22 @@
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>URL to the community developing vocab</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1302,21 +1321,18 @@
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1355,21 +1371,22 @@
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1408,21 +1425,22 @@
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:datetime</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-22T13:09:45+00:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Automatic update when vocabulary is updated</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1461,128 +1479,45 @@
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -1598,19 +1533,24 @@
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>grant type</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>2023-08-29T15:51:02+00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Automatic update when vocabulary is updated</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1647,45 +1587,134 @@
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>skos:prefLabel@en(id="label")</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
@@ -1700,24 +1729,21 @@
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>repurposed</t>
+          <t>grant type</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1753,25 +1779,26 @@
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>supplemented</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>vocab:1000</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1806,25 +1833,26 @@
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vocab:1004</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>unspecified</t>
+          <t>repurposed</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1078,vocab:1089,vocab:1099,vocab:1100,vocab:1147,vocab:1148,vocab:1154</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1859,25 +1887,26 @@
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vocab:1005</t>
+          <t>vocab:1003</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>supplemented</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1058,vocab:1078,vocab:1147,vocab:1148,vocab:1154,vocab:1178</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1912,25 +1941,26 @@
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vocab:1006</t>
+          <t>vocab:1004</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>not known</t>
+          <t>unspecified</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>vocab:1000,vocab:1007,vocab:1020,vocab:1024,vocab:1037,vocab:1050,vocab:1058,vocab:1078,vocab:1089,vocab:1099,vocab:1100,vocab:1154,vocab:1178</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vocab:1000,vocab:1007,vocab:1015,vocab:1019,vocab:1032,vocab:1045,vocab:1073,vocab:1084,vocab:1094,vocab:1101,vocab:1104,vocab:1107</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1965,21 +1995,26 @@
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vocab:1007</t>
+          <t>vocab:1005</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>age group</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>vocab:1000,vocab:1007,vocab:1015,vocab:1019,vocab:1032,vocab:1045,vocab:1053,vocab:1073,vocab:1101,vocab:1104,vocab:1107,vocab:1131</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -2014,30 +2049,27 @@
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vocab:1008</t>
+          <t>vocab:1006</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>not known</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/covid19/10038</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>vocab:1000,vocab:1007,vocab:1015,vocab:1019,vocab:1032,vocab:1045,vocab:1053,vocab:1073,vocab:1084,vocab:1094,vocab:1107,vocab:1131</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2071,30 +2103,23 @@
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vocab:1009</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>babies</t>
+          <t>age group</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/covid19/10038</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2128,31 +2153,32 @@
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vocab:1010</t>
+          <t>vocab:1008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>elderly</t>
+          <t>adolescent</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>vocab:1007</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>http://purl.org/zonmw/covid19/10038</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2185,31 +2211,32 @@
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vocab:1011</t>
+          <t>vocab:1009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>neonates</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>vocab:1007</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>http://purl.org/zonmw/covid19/10038</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2242,31 +2269,32 @@
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vocab:1012</t>
+          <t>vocab:1010</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>newborns</t>
+          <t>aged</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>vocab:1007</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>http://purl.org/zonmw/covid19/10038</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2299,31 +2327,32 @@
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>vocab:1013</t>
+          <t>vocab:1011</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>prematures</t>
+          <t>frail elderly</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>vocab:1007</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>http://purl.org/zonmw/covid19/10038</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2356,31 +2385,32 @@
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vocab:1014</t>
+          <t>vocab:1012</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>primary school children</t>
+          <t>child</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>vocab:1007</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>http://purl.org/zonmw/covid19/10038</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2413,31 +2443,32 @@
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>vocab:1015</t>
+          <t>vocab:1013</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>small children</t>
+          <t>infant</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>vocab:1007</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>http://purl.org/zonmw/covid19/10038</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2470,31 +2501,32 @@
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vocab:1016</t>
+          <t>vocab:1014</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>teenager</t>
+          <t>newborn</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>vocab:1007</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>http://purl.org/zonmw/covid19/10038</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2527,30 +2559,23 @@
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>vocab:1017</t>
+          <t>vocab:1015</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>very elderly</t>
+          <t>rurality</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/covid19/10038</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -2584,30 +2609,27 @@
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vocab:1018</t>
+          <t>vocab:1016</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>young adults</t>
+          <t>rural population</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/covid19/10038</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>vocab:1015</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2641,30 +2663,27 @@
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vocab:1019</t>
+          <t>vocab:1017</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>young people</t>
+          <t>suburban population</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/covid19/10038</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>vocab:1015</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2698,21 +2717,26 @@
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vocab:1020</t>
+          <t>vocab:1018</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rurality</t>
+          <t>urban population</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>vocab:1015</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2747,24 +2771,21 @@
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vocab:1021</t>
+          <t>vocab:1019</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rural population</t>
+          <t>vulnerable populations</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2800,25 +2821,26 @@
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>vocab:1022</t>
+          <t>vocab:1020</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>suburban population</t>
+          <t>disabled persons</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2853,25 +2875,26 @@
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>vocab:1023</t>
+          <t>vocab:1021</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>urban population</t>
+          <t>drug users</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -2906,21 +2929,26 @@
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>vocab:1024</t>
+          <t>vocab:1022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vulnerable populations</t>
+          <t>refugees</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -2955,25 +2983,26 @@
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>vocab:1025</t>
+          <t>vocab:1023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>disabled persons</t>
+          <t>indigenous people</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -3008,25 +3037,26 @@
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vocab:1026</t>
+          <t>vocab:1024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>drug users</t>
+          <t>sexual and gender minorities</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -3061,25 +3091,26 @@
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vocab:1027</t>
+          <t>vocab:1025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>refugees</t>
+          <t>prisoners</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -3114,25 +3145,26 @@
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>indigenous people</t>
+          <t>sex workers</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -3167,25 +3199,26 @@
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>vocab:1029</t>
+          <t>vocab:1027</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sexual and gender minorities</t>
+          <t>smokers</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -3220,25 +3253,26 @@
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>vocab:1030</t>
+          <t>vocab:1028</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>prisoners</t>
+          <t>women</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -3273,25 +3307,26 @@
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>vocab:1031</t>
+          <t>vocab:1029</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sex workers</t>
+          <t>pregnant women</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -3326,25 +3361,26 @@
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>vocab:1032</t>
+          <t>vocab:1030</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>smokers</t>
+          <t>minority communities unspecified</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -3379,25 +3415,26 @@
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>vocab:1033</t>
+          <t>vocab:1031</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>vulnerable populations unspecified</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -3432,24 +3469,21 @@
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1032</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pregnant women</t>
+          <t>occupational groups</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -3485,25 +3519,26 @@
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>vocab:1035</t>
+          <t>vocab:1033</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>minority communities unspecified</t>
+          <t>farmers</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -3538,25 +3573,26 @@
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>vocab:1036</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>vulnerable populations unspecified</t>
+          <t>emergency responders</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -3591,21 +3627,26 @@
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>vocab:1037</t>
+          <t>vocab:1035</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>occupational groups</t>
+          <t>military personnel</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -3640,25 +3681,26 @@
       <c r="AK58" t="inlineStr"/>
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>vocab:1038</t>
+          <t>vocab:1036</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>farmers</t>
+          <t>social workers</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -3693,25 +3735,26 @@
       <c r="AK59" t="inlineStr"/>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>vocab:1039</t>
+          <t>vocab:1037</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>emergency responders</t>
+          <t>caregivers</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -3746,25 +3789,26 @@
       <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>vocab:1040</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>military personnel</t>
+          <t>health personnel</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -3799,25 +3843,26 @@
       <c r="AK61" t="inlineStr"/>
       <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>vocab:1041</t>
+          <t>vocab:1039</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>social workers</t>
+          <t>hospital personnel</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -3852,25 +3897,26 @@
       <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>vocab:1042</t>
+          <t>vocab:1040</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>caregivers</t>
+          <t>nurses and nursing staff</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -3905,25 +3951,26 @@
       <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>vocab:1043</t>
+          <t>vocab:1041</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>health personnel</t>
+          <t>physicians</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -3958,25 +4005,26 @@
       <c r="AK64" t="inlineStr"/>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>vocab:1044</t>
+          <t>vocab:1042</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>hospital personnel</t>
+          <t>dentists and dental staff</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -4011,25 +4059,26 @@
       <c r="AK65" t="inlineStr"/>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>vocab:1045</t>
+          <t>vocab:1043</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>nurses and nursing staff</t>
+          <t>veterinarians</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -4064,25 +4113,26 @@
       <c r="AK66" t="inlineStr"/>
       <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>vocab:1046</t>
+          <t>vocab:1044</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>physicians</t>
+          <t>volunteers</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -4117,24 +4167,21 @@
       <c r="AK67" t="inlineStr"/>
       <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>vocab:1047</t>
+          <t>vocab:1045</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>dentists and dental staff</t>
+          <t>studys ubject</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -4170,25 +4217,26 @@
       <c r="AK68" t="inlineStr"/>
       <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>vocab:1048</t>
+          <t>vocab:1046</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>veterinarians</t>
+          <t>humans</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>vocab:1045</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -4223,25 +4271,26 @@
       <c r="AK69" t="inlineStr"/>
       <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>vocab:1049</t>
+          <t>vocab:1047</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>volunteers</t>
+          <t>animals</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>vocab:1037</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>vocab:1045</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -4276,21 +4325,26 @@
       <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>vocab:1050</t>
+          <t>vocab:1048</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>studySubject</t>
+          <t>invertebrates</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>vocab:1045</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -4325,25 +4379,26 @@
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>vocab:1051</t>
+          <t>vocab:1049</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>humans</t>
+          <t>bacteria</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>vocab:1050</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>vocab:1045</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -4378,25 +4433,26 @@
       <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>vocab:1052</t>
+          <t>vocab:1050</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>animals</t>
+          <t>viruses</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>vocab:1050</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>vocab:1045</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -4431,25 +4487,26 @@
       <c r="AK73" t="inlineStr"/>
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>vocab:1053</t>
+          <t>vocab:1051</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>invertebrates</t>
+          <t>organism forms</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>vocab:1050</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>vocab:1045</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -4484,25 +4541,26 @@
       <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>vocab:1054</t>
+          <t>vocab:1052</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bacteria</t>
+          <t>other</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>vocab:1050</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>vocab:1045,vocab:1053,vocab:1084,vocab:1119,vocab:1131</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -4537,24 +4595,21 @@
       <c r="AK75" t="inlineStr"/>
       <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vocab:1055</t>
+          <t>vocab:1053</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>viruses</t>
+          <t>study type</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>vocab:1050</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -4590,25 +4645,26 @@
       <c r="AK76" t="inlineStr"/>
       <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1054</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>organism forms</t>
+          <t>case reports</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>vocab:1050</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -4643,25 +4699,26 @@
       <c r="AK77" t="inlineStr"/>
       <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vocab:1057</t>
+          <t>vocab:1055</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>clinical conference</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>vocab:1050,vocab:1058,vocab:1089,vocab:1166,vocab:1178</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -4696,21 +4753,26 @@
       <c r="AK78" t="inlineStr"/>
       <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>vocab:1058</t>
+          <t>vocab:1056</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>studytype</t>
+          <t>clinical study</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -4745,25 +4807,26 @@
       <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>vocab:1059</t>
+          <t>vocab:1057</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>case reports</t>
+          <t>clinical trial</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -4798,25 +4861,26 @@
       <c r="AK80" t="inlineStr"/>
       <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>vocab:1060</t>
+          <t>vocab:1058</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>clinical conference</t>
+          <t>comparative study</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -4851,25 +4915,26 @@
       <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="inlineStr"/>
       <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>vocab:1061</t>
+          <t>vocab:1059</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>clinical study</t>
+          <t>consensus development conference</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -4904,25 +4969,26 @@
       <c r="AK82" t="inlineStr"/>
       <c r="AL82" t="inlineStr"/>
       <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>vocab:1062</t>
+          <t>vocab:1060</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>clinical trial</t>
+          <t>evaluation study</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -4957,25 +5023,26 @@
       <c r="AK83" t="inlineStr"/>
       <c r="AL83" t="inlineStr"/>
       <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>vocab:1063</t>
+          <t>vocab:1061</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>comparative study</t>
+          <t>meta-analysis</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -5010,25 +5077,26 @@
       <c r="AK84" t="inlineStr"/>
       <c r="AL84" t="inlineStr"/>
       <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>vocab:1064</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>consensus development conference</t>
+          <t>multicenter study</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -5063,25 +5131,26 @@
       <c r="AK85" t="inlineStr"/>
       <c r="AL85" t="inlineStr"/>
       <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>vocab:1065</t>
+          <t>vocab:1063</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>evaluation study</t>
+          <t>scientific integrity review</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
@@ -5116,25 +5185,26 @@
       <c r="AK86" t="inlineStr"/>
       <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1064</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>meta-analysis</t>
+          <t>systematic review</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -5169,25 +5239,26 @@
       <c r="AK87" t="inlineStr"/>
       <c r="AL87" t="inlineStr"/>
       <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>vocab:1067</t>
+          <t>vocab:1065</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>multicenter study</t>
+          <t>validation study</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -5222,25 +5293,26 @@
       <c r="AK88" t="inlineStr"/>
       <c r="AL88" t="inlineStr"/>
       <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>vocab:1068</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>scientific integrity review</t>
+          <t>observational study</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -5275,25 +5347,26 @@
       <c r="AK89" t="inlineStr"/>
       <c r="AL89" t="inlineStr"/>
       <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>vocab:1069</t>
+          <t>vocab:1067</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>systematic review</t>
+          <t>biological specimen banks</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -5328,25 +5401,26 @@
       <c r="AK90" t="inlineStr"/>
       <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>vocab:1070</t>
+          <t>vocab:1068</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>validation study</t>
+          <t>policy report</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -5381,25 +5455,26 @@
       <c r="AK91" t="inlineStr"/>
       <c r="AL91" t="inlineStr"/>
       <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>vocab:1071</t>
+          <t>vocab:1069</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>observational study</t>
+          <t>study, design unspecified</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -5434,25 +5509,26 @@
       <c r="AK92" t="inlineStr"/>
       <c r="AL92" t="inlineStr"/>
       <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>vocab:1072</t>
+          <t>vocab:1070</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>biological specimen banks</t>
+          <t>review</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
@@ -5487,25 +5563,26 @@
       <c r="AK93" t="inlineStr"/>
       <c r="AL93" t="inlineStr"/>
       <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1071</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>policy report</t>
+          <t>laboratory work</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -5540,25 +5617,26 @@
       <c r="AK94" t="inlineStr"/>
       <c r="AL94" t="inlineStr"/>
       <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>vocab:1074</t>
+          <t>vocab:1072</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>study, design unspecified</t>
+          <t>secondary data analysis</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -5593,24 +5671,21 @@
       <c r="AK95" t="inlineStr"/>
       <c r="AL95" t="inlineStr"/>
       <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>vocab:1075</t>
+          <t>vocab:1073</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>clinical trial phase</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -5646,25 +5721,26 @@
       <c r="AK96" t="inlineStr"/>
       <c r="AL96" t="inlineStr"/>
       <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>vocab:1076</t>
+          <t>vocab:1074</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>laboratory work</t>
+          <t>adaptive clinical trial</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
@@ -5699,25 +5775,26 @@
       <c r="AK97" t="inlineStr"/>
       <c r="AL97" t="inlineStr"/>
       <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>vocab:1077</t>
+          <t>vocab:1075</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>secondary data analysis</t>
+          <t>clinical trial, phase i</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>vocab:1058</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
@@ -5752,21 +5829,26 @@
       <c r="AK98" t="inlineStr"/>
       <c r="AL98" t="inlineStr"/>
       <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>vocab:1078</t>
+          <t>vocab:1076</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>clinical trial phase</t>
+          <t>clinical trial, phase ii</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -5801,25 +5883,26 @@
       <c r="AK99" t="inlineStr"/>
       <c r="AL99" t="inlineStr"/>
       <c r="AM99" t="inlineStr"/>
+      <c r="AN99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>vocab:1079</t>
+          <t>vocab:1077</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adaptive clinical trial</t>
+          <t>clinical trial, phase iii</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -5854,25 +5937,26 @@
       <c r="AK100" t="inlineStr"/>
       <c r="AL100" t="inlineStr"/>
       <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>vocab:1080</t>
+          <t>vocab:1078</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>clinical trial, phase i</t>
+          <t>clinical trial, phase iv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -5907,25 +5991,26 @@
       <c r="AK101" t="inlineStr"/>
       <c r="AL101" t="inlineStr"/>
       <c r="AM101" t="inlineStr"/>
+      <c r="AN101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>vocab:1081</t>
+          <t>vocab:1079</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>clinical trial, phase ii</t>
+          <t>controlled clinical trial</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
@@ -5960,25 +6045,26 @@
       <c r="AK102" t="inlineStr"/>
       <c r="AL102" t="inlineStr"/>
       <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>vocab:1082</t>
+          <t>vocab:1080</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>clinical trial, phase iii</t>
+          <t>randomized controlled trial</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
@@ -6013,25 +6099,26 @@
       <c r="AK103" t="inlineStr"/>
       <c r="AL103" t="inlineStr"/>
       <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>vocab:1083</t>
+          <t>vocab:1081</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>clinical trial, phase iv</t>
+          <t>clinical trial protocol</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -6066,25 +6153,26 @@
       <c r="AK104" t="inlineStr"/>
       <c r="AL104" t="inlineStr"/>
       <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>vocab:1084</t>
+          <t>vocab:1082</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>controlled clinical trial</t>
+          <t>clinical trial, veterinary</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
@@ -6119,25 +6207,26 @@
       <c r="AK105" t="inlineStr"/>
       <c r="AL105" t="inlineStr"/>
       <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>vocab:1085</t>
+          <t>vocab:1083</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>randomized controlled trial</t>
+          <t>randomized controlled trial, veterinary</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -6172,24 +6261,21 @@
       <c r="AK106" t="inlineStr"/>
       <c r="AL106" t="inlineStr"/>
       <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>vocab:1086</t>
+          <t>vocab:1084</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>clinical trial protocol</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -6225,25 +6311,26 @@
       <c r="AK107" t="inlineStr"/>
       <c r="AL107" t="inlineStr"/>
       <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>vocab:1087</t>
+          <t>vocab:1085</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>clinical trial, veterinary</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>vocab:1084</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -6278,25 +6365,26 @@
       <c r="AK108" t="inlineStr"/>
       <c r="AL108" t="inlineStr"/>
       <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>vocab:1088</t>
+          <t>vocab:1086</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>randomized controlled trial, veterinary</t>
+          <t>black</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>vocab:1078</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>vocab:1084</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -6331,21 +6419,26 @@
       <c r="AK109" t="inlineStr"/>
       <c r="AL109" t="inlineStr"/>
       <c r="AM109" t="inlineStr"/>
+      <c r="AN109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>vocab:1089</t>
+          <t>vocab:1087</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>vocab:1084</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -6380,25 +6473,26 @@
       <c r="AK110" t="inlineStr"/>
       <c r="AL110" t="inlineStr"/>
       <c r="AM110" t="inlineStr"/>
+      <c r="AN110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>vocab:1090</t>
+          <t>vocab:1088</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>asian</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>vocab:1089</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>vocab:1084</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -6433,24 +6527,21 @@
       <c r="AK111" t="inlineStr"/>
       <c r="AL111" t="inlineStr"/>
       <c r="AM111" t="inlineStr"/>
+      <c r="AN111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>vocab:1091</t>
+          <t>vocab:1089</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>project information</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>vocab:1089</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
@@ -6486,25 +6577,26 @@
       <c r="AK112" t="inlineStr"/>
       <c r="AL112" t="inlineStr"/>
       <c r="AM112" t="inlineStr"/>
+      <c r="AN112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>vocab:1092</t>
+          <t>vocab:1090</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>funding organization name</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>vocab:1089</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -6539,25 +6631,26 @@
       <c r="AK113" t="inlineStr"/>
       <c r="AL113" t="inlineStr"/>
       <c r="AM113" t="inlineStr"/>
+      <c r="AN113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>vocab:1093</t>
+          <t>vocab:1091</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>funder CrossRefID</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
         <is>
           <t>vocab:1089</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -6592,21 +6685,26 @@
       <c r="AK114" t="inlineStr"/>
       <c r="AL114" t="inlineStr"/>
       <c r="AM114" t="inlineStr"/>
+      <c r="AN114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>vocab:1094</t>
+          <t>vocab:1092</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>project information</t>
+          <t>funder acronym</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>vocab:1089</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -6641,21 +6739,26 @@
       <c r="AK115" t="inlineStr"/>
       <c r="AL115" t="inlineStr"/>
       <c r="AM115" t="inlineStr"/>
+      <c r="AN115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>vocab:1093</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>funding organization name</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>vocab:1094</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>vocab:1089</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -6690,25 +6793,26 @@
       <c r="AK116" t="inlineStr"/>
       <c r="AL116" t="inlineStr"/>
       <c r="AM116" t="inlineStr"/>
+      <c r="AN116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>vocab:1096</t>
+          <t>vocab:1094</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>funder CrossRefID</t>
+          <t>regions</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>vocab:1094</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>vocab:1089</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -6743,25 +6847,26 @@
       <c r="AK117" t="inlineStr"/>
       <c r="AL117" t="inlineStr"/>
       <c r="AM117" t="inlineStr"/>
+      <c r="AN117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1095</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>funder acronym</t>
+          <t>africa</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
         <is>
           <t>vocab:1094</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -6796,25 +6901,26 @@
       <c r="AK118" t="inlineStr"/>
       <c r="AL118" t="inlineStr"/>
       <c r="AM118" t="inlineStr"/>
+      <c r="AN118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1096</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>americas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
         <is>
           <t>vocab:1094</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
@@ -6849,25 +6955,26 @@
       <c r="AK119" t="inlineStr"/>
       <c r="AL119" t="inlineStr"/>
       <c r="AM119" t="inlineStr"/>
+      <c r="AN119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>regions</t>
+          <t>south-east asia</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>vocab:1094</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -6902,25 +7009,26 @@
       <c r="AK120" t="inlineStr"/>
       <c r="AL120" t="inlineStr"/>
       <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>subregions</t>
+          <t>europe</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>vocab:1094</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -6955,25 +7063,26 @@
       <c r="AK121" t="inlineStr"/>
       <c r="AL121" t="inlineStr"/>
       <c r="AM121" t="inlineStr"/>
+      <c r="AN121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>africa</t>
+          <t>eastern mediterranean</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>vocab:1099</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -7008,25 +7117,26 @@
       <c r="AK122" t="inlineStr"/>
       <c r="AL122" t="inlineStr"/>
       <c r="AM122" t="inlineStr"/>
+      <c r="AN122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>americas</t>
+          <t>western pacific</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>vocab:1099</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
@@ -7061,24 +7171,21 @@
       <c r="AK123" t="inlineStr"/>
       <c r="AL123" t="inlineStr"/>
       <c r="AM123" t="inlineStr"/>
+      <c r="AN123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>south-east asia</t>
+          <t>partner organization</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>vocab:1099</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
@@ -7114,25 +7221,26 @@
       <c r="AK124" t="inlineStr"/>
       <c r="AL124" t="inlineStr"/>
       <c r="AM124" t="inlineStr"/>
+      <c r="AN124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>vocab:1104</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>europe</t>
+          <t>partner organization name</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>vocab:1099</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -7167,25 +7275,26 @@
       <c r="AK125" t="inlineStr"/>
       <c r="AL125" t="inlineStr"/>
       <c r="AM125" t="inlineStr"/>
+      <c r="AN125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>vocab:1105</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>eastern mediterranean</t>
+          <t>partner organization country</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>vocab:1099</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -7220,24 +7329,21 @@
       <c r="AK126" t="inlineStr"/>
       <c r="AL126" t="inlineStr"/>
       <c r="AM126" t="inlineStr"/>
+      <c r="AN126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>vocab:1106</t>
+          <t>vocab:1104</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>western pacific</t>
+          <t>research institution</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>vocab:1099</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
@@ -7273,25 +7379,26 @@
       <c r="AK127" t="inlineStr"/>
       <c r="AL127" t="inlineStr"/>
       <c r="AM127" t="inlineStr"/>
+      <c r="AN127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1105</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>china</t>
+          <t>research institution name</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>vocab:1104</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
@@ -7326,25 +7433,26 @@
       <c r="AK128" t="inlineStr"/>
       <c r="AL128" t="inlineStr"/>
       <c r="AM128" t="inlineStr"/>
+      <c r="AN128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>vocab:1108</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>established market economies</t>
+          <t>research institution country</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>vocab:1104</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
@@ -7379,24 +7487,21 @@
       <c r="AK129" t="inlineStr"/>
       <c r="AL129" t="inlineStr"/>
       <c r="AM129" t="inlineStr"/>
+      <c r="AN129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>vocab:1109</t>
+          <t>vocab:1107</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>formerly socialist economies of europe</t>
+          <t>WHO GHO bservatory Framework</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -7432,25 +7537,26 @@
       <c r="AK130" t="inlineStr"/>
       <c r="AL130" t="inlineStr"/>
       <c r="AM130" t="inlineStr"/>
+      <c r="AN130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>vocab:1110</t>
+          <t>vocab:1108</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>india</t>
+          <t>cause</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
@@ -7485,25 +7591,26 @@
       <c r="AK131" t="inlineStr"/>
       <c r="AL131" t="inlineStr"/>
       <c r="AM131" t="inlineStr"/>
+      <c r="AN131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>vocab:1111</t>
+          <t>vocab:1109</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>latin america and the caribbean</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
@@ -7538,25 +7645,26 @@
       <c r="AK132" t="inlineStr"/>
       <c r="AL132" t="inlineStr"/>
       <c r="AM132" t="inlineStr"/>
+      <c r="AN132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>vocab:1112</t>
+          <t>vocab:1110</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>middle east crescent</t>
+          <t>drug development</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
@@ -7591,25 +7699,26 @@
       <c r="AK133" t="inlineStr"/>
       <c r="AL133" t="inlineStr"/>
       <c r="AM133" t="inlineStr"/>
+      <c r="AN133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>vocab:1113</t>
+          <t>vocab:1111</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>other asia and islands</t>
+          <t>diagnostics/screening</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
@@ -7644,25 +7753,26 @@
       <c r="AK134" t="inlineStr"/>
       <c r="AL134" t="inlineStr"/>
       <c r="AM134" t="inlineStr"/>
+      <c r="AN134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>vocab:1114</t>
+          <t>vocab:1112</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>sub-saharan africa</t>
+          <t>device</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -7697,25 +7807,26 @@
       <c r="AK135" t="inlineStr"/>
       <c r="AL135" t="inlineStr"/>
       <c r="AM135" t="inlineStr"/>
+      <c r="AN135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>vocab:1115</t>
+          <t>vocab:1113</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>vaccine</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -7750,25 +7861,26 @@
       <c r="AK136" t="inlineStr"/>
       <c r="AL136" t="inlineStr"/>
       <c r="AM136" t="inlineStr"/>
+      <c r="AN136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>vocab:1116</t>
+          <t>vocab:1114</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>eastern asia</t>
+          <t>vector control</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -7803,25 +7915,26 @@
       <c r="AK137" t="inlineStr"/>
       <c r="AL137" t="inlineStr"/>
       <c r="AM137" t="inlineStr"/>
+      <c r="AN137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>vocab:1117</t>
+          <t>vocab:1115</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>southern asia</t>
+          <t>basic Science</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -7856,25 +7969,26 @@
       <c r="AK138" t="inlineStr"/>
       <c r="AL138" t="inlineStr"/>
       <c r="AM138" t="inlineStr"/>
+      <c r="AN138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>vocab:1118</t>
+          <t>vocab:1116</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>low and middle income countries of the african region</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -7909,25 +8023,26 @@
       <c r="AK139" t="inlineStr"/>
       <c r="AL139" t="inlineStr"/>
       <c r="AM139" t="inlineStr"/>
+      <c r="AN139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1117</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>low and middle income countries of the americas</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -7962,25 +8077,26 @@
       <c r="AK140" t="inlineStr"/>
       <c r="AL140" t="inlineStr"/>
       <c r="AM140" t="inlineStr"/>
+      <c r="AN140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>vocab:1120</t>
+          <t>vocab:1118</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>low and middle income countries of the eastern mediterranean region</t>
+          <t>no research category assigned</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -8015,24 +8131,21 @@
       <c r="AK141" t="inlineStr"/>
       <c r="AL141" t="inlineStr"/>
       <c r="AM141" t="inlineStr"/>
+      <c r="AN141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>vocab:1121</t>
+          <t>vocab:1119</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>low and middle income countries of the european region</t>
+          <t>disease</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
@@ -8068,27 +8181,32 @@
       <c r="AK142" t="inlineStr"/>
       <c r="AL142" t="inlineStr"/>
       <c r="AM142" t="inlineStr"/>
+      <c r="AN142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>vocab:1122</t>
+          <t>vocab:1120</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>low and middle income countries of the south-east asia region</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10270</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -8121,25 +8239,26 @@
       <c r="AK143" t="inlineStr"/>
       <c r="AL143" t="inlineStr"/>
       <c r="AM143" t="inlineStr"/>
+      <c r="AN143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>vocab:1123</t>
+          <t>vocab:1121</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>Crimean-Congo haemorrhagic fever</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -8174,25 +8293,26 @@
       <c r="AK144" t="inlineStr"/>
       <c r="AL144" t="inlineStr"/>
       <c r="AM144" t="inlineStr"/>
+      <c r="AN144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>vocab:1124</t>
+          <t>vocab:1122</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>low and middle income countries of the western pacific region</t>
+          <t>Ebola virus disease</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -8227,25 +8347,26 @@
       <c r="AK145" t="inlineStr"/>
       <c r="AL145" t="inlineStr"/>
       <c r="AM145" t="inlineStr"/>
+      <c r="AN145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>vocab:1125</t>
+          <t>vocab:1123</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>high-income countries</t>
+          <t>Marburg virus disease</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -8280,25 +8401,26 @@
       <c r="AK146" t="inlineStr"/>
       <c r="AL146" t="inlineStr"/>
       <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>vocab:1126</t>
+          <t>vocab:1124</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>asia pacific high-income</t>
+          <t>Lassa fever</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
@@ -8333,25 +8455,26 @@
       <c r="AK147" t="inlineStr"/>
       <c r="AL147" t="inlineStr"/>
       <c r="AM147" t="inlineStr"/>
+      <c r="AN147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>vocab:1127</t>
+          <t>vocab:1125</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>asia central</t>
+          <t>Middle East Respiratory Syndrome Coronavirus (MERS-CoV)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -8386,25 +8509,26 @@
       <c r="AK148" t="inlineStr"/>
       <c r="AL148" t="inlineStr"/>
       <c r="AM148" t="inlineStr"/>
+      <c r="AN148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>vocab:1128</t>
+          <t>vocab:1126</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>asia east</t>
+          <t>Severe Acute Respiratory Syndrome (SARS)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -8439,25 +8563,26 @@
       <c r="AK149" t="inlineStr"/>
       <c r="AL149" t="inlineStr"/>
       <c r="AM149" t="inlineStr"/>
+      <c r="AN149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>vocab:1129</t>
+          <t>vocab:1127</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>asia south</t>
+          <t>Nipah and henipaviral disease</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -8492,25 +8617,26 @@
       <c r="AK150" t="inlineStr"/>
       <c r="AL150" t="inlineStr"/>
       <c r="AM150" t="inlineStr"/>
+      <c r="AN150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>vocab:1130</t>
+          <t>vocab:1128</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>asia southeast</t>
+          <t>Rift Valley Fever</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -8545,25 +8671,26 @@
       <c r="AK151" t="inlineStr"/>
       <c r="AL151" t="inlineStr"/>
       <c r="AM151" t="inlineStr"/>
+      <c r="AN151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>vocab:1131</t>
+          <t>vocab:1129</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>australasia</t>
+          <t>Zika</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -8598,25 +8725,26 @@
       <c r="AK152" t="inlineStr"/>
       <c r="AL152" t="inlineStr"/>
       <c r="AM152" t="inlineStr"/>
+      <c r="AN152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>vocab:1132</t>
+          <t>vocab:1130</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>caribbean</t>
+          <t>Congenital Zika virus disease</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -8651,24 +8779,21 @@
       <c r="AK153" t="inlineStr"/>
       <c r="AL153" t="inlineStr"/>
       <c r="AM153" t="inlineStr"/>
+      <c r="AN153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>vocab:1133</t>
+          <t>vocab:1131</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>europe central</t>
+          <t>pathogens</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
@@ -8704,25 +8829,26 @@
       <c r="AK154" t="inlineStr"/>
       <c r="AL154" t="inlineStr"/>
       <c r="AM154" t="inlineStr"/>
+      <c r="AN154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>vocab:1134</t>
+          <t>vocab:1132</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>europe eastern</t>
+          <t>Coronavirus</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>vocab:1131</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
@@ -8757,25 +8883,26 @@
       <c r="AK155" t="inlineStr"/>
       <c r="AL155" t="inlineStr"/>
       <c r="AM155" t="inlineStr"/>
+      <c r="AN155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>vocab:1135</t>
+          <t>vocab:1133</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>europe western</t>
+          <t>SARS-CoV</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>vocab:1131</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -8810,25 +8937,26 @@
       <c r="AK156" t="inlineStr"/>
       <c r="AL156" t="inlineStr"/>
       <c r="AM156" t="inlineStr"/>
+      <c r="AN156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>vocab:1136</t>
+          <t>vocab:1134</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>latin america andean</t>
+          <t>SARSr-CoV</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>vocab:1131</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -8863,27 +8991,32 @@
       <c r="AK157" t="inlineStr"/>
       <c r="AL157" t="inlineStr"/>
       <c r="AM157" t="inlineStr"/>
+      <c r="AN157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>vocab:1137</t>
+          <t>vocab:1135</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>latin america central</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>vocab:1131</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10269</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -8916,25 +9049,26 @@
       <c r="AK158" t="inlineStr"/>
       <c r="AL158" t="inlineStr"/>
       <c r="AM158" t="inlineStr"/>
+      <c r="AN158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>vocab:1138</t>
+          <t>vocab:1136</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>latin america southern</t>
+          <t>SARS-CoV-1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>vocab:1131</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
@@ -8969,25 +9103,26 @@
       <c r="AK159" t="inlineStr"/>
       <c r="AL159" t="inlineStr"/>
       <c r="AM159" t="inlineStr"/>
+      <c r="AN159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>vocab:1139</t>
+          <t>vocab:1137</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>latin america tropical</t>
+          <t>MERS-CoV</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>vocab:1131</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
@@ -9022,24 +9157,21 @@
       <c r="AK160" t="inlineStr"/>
       <c r="AL160" t="inlineStr"/>
       <c r="AM160" t="inlineStr"/>
+      <c r="AN160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>vocab:1140</t>
+          <t>vocab:1138</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>north africa/middle east</t>
+          <t>investigator</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
@@ -9075,25 +9207,26 @@
       <c r="AK161" t="inlineStr"/>
       <c r="AL161" t="inlineStr"/>
       <c r="AM161" t="inlineStr"/>
+      <c r="AN161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>vocab:1141</t>
+          <t>vocab:1139</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>north america high-income</t>
+          <t>investigator identification</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>vocab:1138</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
@@ -9128,25 +9261,26 @@
       <c r="AK162" t="inlineStr"/>
       <c r="AL162" t="inlineStr"/>
       <c r="AM162" t="inlineStr"/>
+      <c r="AN162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>vocab:1142</t>
+          <t>vocab:1140</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>oceania</t>
+          <t>investigator ORCID</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>vocab:1138</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
@@ -9181,25 +9315,26 @@
       <c r="AK163" t="inlineStr"/>
       <c r="AL163" t="inlineStr"/>
       <c r="AM163" t="inlineStr"/>
+      <c r="AN163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>vocab:1143</t>
+          <t>vocab:1141</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>sub-saharan africa central</t>
+          <t>investigator first name</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>vocab:1138</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
@@ -9234,25 +9369,30 @@
       <c r="AK164" t="inlineStr"/>
       <c r="AL164" t="inlineStr"/>
       <c r="AM164" t="inlineStr"/>
+      <c r="AN164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>vocab:1144</t>
+          <t>vocab:1142</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>sub-saharan africa east</t>
+          <t>investigator last name</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
+          <t>skos:Concept</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>vocab:1138</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
@@ -9287,22 +9427,23 @@
       <c r="AK165" t="inlineStr"/>
       <c r="AL165" t="inlineStr"/>
       <c r="AM165" t="inlineStr"/>
+      <c r="AN165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>vocab:1145</t>
+          <t>vocab:1143</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>sub-saharan africa southern</t>
+          <t>has grant id</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -9340,22 +9481,23 @@
       <c r="AK166" t="inlineStr"/>
       <c r="AL166" t="inlineStr"/>
       <c r="AM166" t="inlineStr"/>
+      <c r="AN166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>vocab:1146</t>
+          <t>vocab:1144</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>sub-saharan africa west</t>
+          <t xml:space="preserve">has unique database reference number </t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -9393,20 +9535,25 @@
       <c r="AK167" t="inlineStr"/>
       <c r="AL167" t="inlineStr"/>
       <c r="AM167" t="inlineStr"/>
+      <c r="AN167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>vocab:1147</t>
+          <t>vocab:1145</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>research institution</t>
+          <t>has grant title original</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
@@ -9442,20 +9589,25 @@
       <c r="AK168" t="inlineStr"/>
       <c r="AL168" t="inlineStr"/>
       <c r="AM168" t="inlineStr"/>
+      <c r="AN168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>vocab:1148</t>
+          <t>vocab:1146</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>partner organization</t>
+          <t>has grant title eng</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
@@ -9491,22 +9643,23 @@
       <c r="AK169" t="inlineStr"/>
       <c r="AL169" t="inlineStr"/>
       <c r="AM169" t="inlineStr"/>
+      <c r="AN169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>vocab:1149</t>
+          <t>vocab:1147</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>partner organization name</t>
+          <t>has grant number</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>vocab:1148</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -9544,22 +9697,23 @@
       <c r="AK170" t="inlineStr"/>
       <c r="AL170" t="inlineStr"/>
       <c r="AM170" t="inlineStr"/>
+      <c r="AN170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>vocab:1150</t>
+          <t>vocab:1148</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>partner organization identification</t>
+          <t>has grant region</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>vocab:1148</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
@@ -9597,22 +9751,23 @@
       <c r="AK171" t="inlineStr"/>
       <c r="AL171" t="inlineStr"/>
       <c r="AM171" t="inlineStr"/>
+      <c r="AN171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>vocab:1151</t>
+          <t>vocab:1149</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>partner organization country</t>
+          <t>has grant country</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>vocab:1148</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -9650,22 +9805,23 @@
       <c r="AK172" t="inlineStr"/>
       <c r="AL172" t="inlineStr"/>
       <c r="AM172" t="inlineStr"/>
+      <c r="AN172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1150</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>research institution name</t>
+          <t>has grant subregion</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>vocab:1147</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -9703,22 +9859,23 @@
       <c r="AK173" t="inlineStr"/>
       <c r="AL173" t="inlineStr"/>
       <c r="AM173" t="inlineStr"/>
+      <c r="AN173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>vocab:1153</t>
+          <t>vocab:1151</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>research institution location</t>
+          <t>has grant amount original</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>vocab:1147</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -9756,20 +9913,25 @@
       <c r="AK174" t="inlineStr"/>
       <c r="AL174" t="inlineStr"/>
       <c r="AM174" t="inlineStr"/>
+      <c r="AN174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>vocab:1152</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>WHO GHO bservatory Framework</t>
+          <t>has grant currency</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
@@ -9805,22 +9967,23 @@
       <c r="AK175" t="inlineStr"/>
       <c r="AL175" t="inlineStr"/>
       <c r="AM175" t="inlineStr"/>
+      <c r="AN175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>vocab:1155</t>
+          <t>vocab:1153</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>cause</t>
+          <t>has currency exchange rate usd</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -9858,22 +10021,23 @@
       <c r="AK176" t="inlineStr"/>
       <c r="AL176" t="inlineStr"/>
       <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>vocab:1156</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>has grant amount converted</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -9911,22 +10075,23 @@
       <c r="AK177" t="inlineStr"/>
       <c r="AL177" t="inlineStr"/>
       <c r="AM177" t="inlineStr"/>
+      <c r="AN177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>vocab:1157</t>
+          <t>vocab:1155</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>drug development</t>
+          <t>has grant type</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -9964,22 +10129,23 @@
       <c r="AK178" t="inlineStr"/>
       <c r="AL178" t="inlineStr"/>
       <c r="AM178" t="inlineStr"/>
+      <c r="AN178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>vocab:1158</t>
+          <t>vocab:1156</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>diagnostics/screening</t>
+          <t>has abstract</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -10017,22 +10183,23 @@
       <c r="AK179" t="inlineStr"/>
       <c r="AL179" t="inlineStr"/>
       <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>vocab:1159</t>
+          <t>vocab:1157</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>device</t>
+          <t>has lay summary</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -10070,22 +10237,23 @@
       <c r="AK180" t="inlineStr"/>
       <c r="AL180" t="inlineStr"/>
       <c r="AM180" t="inlineStr"/>
+      <c r="AN180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>vocab:1160</t>
+          <t>vocab:1158</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>vaccine</t>
+          <t>has oda funding used</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -10123,22 +10291,23 @@
       <c r="AK181" t="inlineStr"/>
       <c r="AL181" t="inlineStr"/>
       <c r="AM181" t="inlineStr"/>
+      <c r="AN181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>vocab:1161</t>
+          <t>vocab:1159</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>vector control</t>
+          <t>has dd, grant start day</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -10176,22 +10345,23 @@
       <c r="AK182" t="inlineStr"/>
       <c r="AL182" t="inlineStr"/>
       <c r="AM182" t="inlineStr"/>
+      <c r="AN182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>vocab:1162</t>
+          <t>vocab:1160</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>basic Science</t>
+          <t>has grant start month</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -10229,22 +10399,23 @@
       <c r="AK183" t="inlineStr"/>
       <c r="AL183" t="inlineStr"/>
       <c r="AM183" t="inlineStr"/>
+      <c r="AN183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>vocab:1163</t>
+          <t>vocab:1161</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>has start year</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -10282,22 +10453,23 @@
       <c r="AK184" t="inlineStr"/>
       <c r="AL184" t="inlineStr"/>
       <c r="AM184" t="inlineStr"/>
+      <c r="AN184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>vocab:1164</t>
+          <t>vocab:1162</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>has grant end day</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -10335,22 +10507,23 @@
       <c r="AK185" t="inlineStr"/>
       <c r="AL185" t="inlineStr"/>
       <c r="AM185" t="inlineStr"/>
+      <c r="AN185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>vocab:1165</t>
+          <t>vocab:1163</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>no research category assigned</t>
+          <t>has grant end month</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -10388,20 +10561,25 @@
       <c r="AK186" t="inlineStr"/>
       <c r="AL186" t="inlineStr"/>
       <c r="AM186" t="inlineStr"/>
+      <c r="AN186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>vocab:1164</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>disease</t>
+          <t>has grant end year</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
@@ -10437,30 +10615,27 @@
       <c r="AK187" t="inlineStr"/>
       <c r="AL187" t="inlineStr"/>
       <c r="AM187" t="inlineStr"/>
+      <c r="AN187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>vocab:1167</t>
+          <t>vocab:1165</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>has study subject</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/covid19/10270</t>
-        </is>
-      </c>
+      <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -10494,22 +10669,23 @@
       <c r="AK188" t="inlineStr"/>
       <c r="AL188" t="inlineStr"/>
       <c r="AM188" t="inlineStr"/>
+      <c r="AN188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>vocab:1168</t>
+          <t>vocab:1166</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Crimean-Congo haemorrhagic fever</t>
+          <t>has age groups</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -10547,22 +10723,23 @@
       <c r="AK189" t="inlineStr"/>
       <c r="AL189" t="inlineStr"/>
       <c r="AM189" t="inlineStr"/>
+      <c r="AN189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>vocab:1169</t>
+          <t>vocab:1167</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ebola virus disease</t>
+          <t>has rurality</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -10600,22 +10777,23 @@
       <c r="AK190" t="inlineStr"/>
       <c r="AL190" t="inlineStr"/>
       <c r="AM190" t="inlineStr"/>
+      <c r="AN190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>vocab:1170</t>
+          <t>vocab:1168</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Marburg virus disease</t>
+          <t>has vulnerable populations</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -10653,22 +10831,23 @@
       <c r="AK191" t="inlineStr"/>
       <c r="AL191" t="inlineStr"/>
       <c r="AM191" t="inlineStr"/>
+      <c r="AN191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>vocab:1171</t>
+          <t>vocab:1169</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Lassa fever</t>
+          <t>has occupational groups</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -10706,22 +10885,23 @@
       <c r="AK192" t="inlineStr"/>
       <c r="AL192" t="inlineStr"/>
       <c r="AM192" t="inlineStr"/>
+      <c r="AN192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
+          <t>vocab:1170</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Middle East Respiratory Syndrome Coronavirus (MERS-CoV)</t>
+          <t>has study type</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -10759,22 +10939,23 @@
       <c r="AK193" t="inlineStr"/>
       <c r="AL193" t="inlineStr"/>
       <c r="AM193" t="inlineStr"/>
+      <c r="AN193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>vocab:1173</t>
+          <t>vocab:1171</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Severe Acute Respiratory Syndrome (SARS)</t>
+          <t>has ethnicity</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -10812,22 +10993,23 @@
       <c r="AK194" t="inlineStr"/>
       <c r="AL194" t="inlineStr"/>
       <c r="AM194" t="inlineStr"/>
+      <c r="AN194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>vocab:1174</t>
+          <t>vocab:1172</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nipah and henipaviral disease</t>
+          <t>has clinical trial phase</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -10865,22 +11047,23 @@
       <c r="AK195" t="inlineStr"/>
       <c r="AL195" t="inlineStr"/>
       <c r="AM195" t="inlineStr"/>
+      <c r="AN195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>vocab:1175</t>
+          <t>vocab:1173</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Rift Valley Fever</t>
+          <t>has pathogen</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -10918,22 +11101,23 @@
       <c r="AK196" t="inlineStr"/>
       <c r="AL196" t="inlineStr"/>
       <c r="AM196" t="inlineStr"/>
+      <c r="AN196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>vocab:1176</t>
+          <t>vocab:1174</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Zika</t>
+          <t>has disease</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -10971,22 +11155,23 @@
       <c r="AK197" t="inlineStr"/>
       <c r="AL197" t="inlineStr"/>
       <c r="AM197" t="inlineStr"/>
+      <c r="AN197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>vocab:1177</t>
+          <t>vocab:1175</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Congenital Zika virus disease</t>
+          <t>has WHO observatory framework</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -11024,20 +11209,25 @@
       <c r="AK198" t="inlineStr"/>
       <c r="AL198" t="inlineStr"/>
       <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>vocab:1178</t>
+          <t>vocab:1176</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>pathogens</t>
+          <t>has keyword</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
@@ -11073,22 +11263,23 @@
       <c r="AK199" t="inlineStr"/>
       <c r="AL199" t="inlineStr"/>
       <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>vocab:1179</t>
+          <t>vocab:1177</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Coronavirus</t>
+          <t>has EuPubMedSource</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>vocab:1178</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -11126,22 +11317,23 @@
       <c r="AK200" t="inlineStr"/>
       <c r="AL200" t="inlineStr"/>
       <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>vocab:1180</t>
+          <t>vocab:1178</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SARS-CoV</t>
+          <t>has funder id</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>vocab:1178</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -11179,22 +11371,23 @@
       <c r="AK201" t="inlineStr"/>
       <c r="AL201" t="inlineStr"/>
       <c r="AM201" t="inlineStr"/>
+      <c r="AN201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>vocab:1181</t>
+          <t>vocab:1179</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SARSr-CoV</t>
+          <t>has funder cross ref id</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>vocab:1178</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -11232,30 +11425,27 @@
       <c r="AK202" t="inlineStr"/>
       <c r="AL202" t="inlineStr"/>
       <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>vocab:1182</t>
+          <t>vocab:1180</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>has funding organisation name</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>vocab:1178</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/covid19/10269</t>
-        </is>
-      </c>
+      <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -11289,22 +11479,23 @@
       <c r="AK203" t="inlineStr"/>
       <c r="AL203" t="inlineStr"/>
       <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>vocab:1183</t>
+          <t>vocab:1181</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SARS-CoV-1</t>
+          <t>has funder acronym</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>vocab:1178</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -11342,22 +11533,23 @@
       <c r="AK204" t="inlineStr"/>
       <c r="AL204" t="inlineStr"/>
       <c r="AM204" t="inlineStr"/>
+      <c r="AN204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>vocab:1184</t>
+          <t>vocab:1182</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MERS-CoV</t>
+          <t>has funder country</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>vocab:1178</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -11395,6 +11587,1303 @@
       <c r="AK205" t="inlineStr"/>
       <c r="AL205" t="inlineStr"/>
       <c r="AM205" t="inlineStr"/>
+      <c r="AN205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>vocab:1183</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>has funder region</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr"/>
+      <c r="AI206" t="inlineStr"/>
+      <c r="AJ206" t="inlineStr"/>
+      <c r="AK206" t="inlineStr"/>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>vocab:1184</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>has funder subregion</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr"/>
+      <c r="AE207" t="inlineStr"/>
+      <c r="AF207" t="inlineStr"/>
+      <c r="AG207" t="inlineStr"/>
+      <c r="AH207" t="inlineStr"/>
+      <c r="AI207" t="inlineStr"/>
+      <c r="AJ207" t="inlineStr"/>
+      <c r="AK207" t="inlineStr"/>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>vocab:1185</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>has investigator id</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr"/>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr"/>
+      <c r="AJ208" t="inlineStr"/>
+      <c r="AK208" t="inlineStr"/>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>vocab:1186</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>has investigator orcid</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr"/>
+      <c r="AE209" t="inlineStr"/>
+      <c r="AF209" t="inlineStr"/>
+      <c r="AG209" t="inlineStr"/>
+      <c r="AH209" t="inlineStr"/>
+      <c r="AI209" t="inlineStr"/>
+      <c r="AJ209" t="inlineStr"/>
+      <c r="AK209" t="inlineStr"/>
+      <c r="AL209" t="inlineStr"/>
+      <c r="AM209" t="inlineStr"/>
+      <c r="AN209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>vocab:1187</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>has investigator first name</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
+      <c r="Z210" t="inlineStr"/>
+      <c r="AA210" t="inlineStr"/>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr"/>
+      <c r="AE210" t="inlineStr"/>
+      <c r="AF210" t="inlineStr"/>
+      <c r="AG210" t="inlineStr"/>
+      <c r="AH210" t="inlineStr"/>
+      <c r="AI210" t="inlineStr"/>
+      <c r="AJ210" t="inlineStr"/>
+      <c r="AK210" t="inlineStr"/>
+      <c r="AL210" t="inlineStr"/>
+      <c r="AM210" t="inlineStr"/>
+      <c r="AN210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>vocab:1188</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>has investigator last name</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
+      <c r="Z211" t="inlineStr"/>
+      <c r="AA211" t="inlineStr"/>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr"/>
+      <c r="AE211" t="inlineStr"/>
+      <c r="AF211" t="inlineStr"/>
+      <c r="AG211" t="inlineStr"/>
+      <c r="AH211" t="inlineStr"/>
+      <c r="AI211" t="inlineStr"/>
+      <c r="AJ211" t="inlineStr"/>
+      <c r="AK211" t="inlineStr"/>
+      <c r="AL211" t="inlineStr"/>
+      <c r="AM211" t="inlineStr"/>
+      <c r="AN211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>vocab:1189</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>has research institution id</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
+      <c r="Z212" t="inlineStr"/>
+      <c r="AA212" t="inlineStr"/>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr"/>
+      <c r="AE212" t="inlineStr"/>
+      <c r="AF212" t="inlineStr"/>
+      <c r="AG212" t="inlineStr"/>
+      <c r="AH212" t="inlineStr"/>
+      <c r="AI212" t="inlineStr"/>
+      <c r="AJ212" t="inlineStr"/>
+      <c r="AK212" t="inlineStr"/>
+      <c r="AL212" t="inlineStr"/>
+      <c r="AM212" t="inlineStr"/>
+      <c r="AN212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>vocab:1190</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>has research institition name</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
+      <c r="Z213" t="inlineStr"/>
+      <c r="AA213" t="inlineStr"/>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr"/>
+      <c r="AE213" t="inlineStr"/>
+      <c r="AF213" t="inlineStr"/>
+      <c r="AG213" t="inlineStr"/>
+      <c r="AH213" t="inlineStr"/>
+      <c r="AI213" t="inlineStr"/>
+      <c r="AJ213" t="inlineStr"/>
+      <c r="AK213" t="inlineStr"/>
+      <c r="AL213" t="inlineStr"/>
+      <c r="AM213" t="inlineStr"/>
+      <c r="AN213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>vocab:1191</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>has research institition rorid</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
+      <c r="Z214" t="inlineStr"/>
+      <c r="AA214" t="inlineStr"/>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="inlineStr"/>
+      <c r="AE214" t="inlineStr"/>
+      <c r="AF214" t="inlineStr"/>
+      <c r="AG214" t="inlineStr"/>
+      <c r="AH214" t="inlineStr"/>
+      <c r="AI214" t="inlineStr"/>
+      <c r="AJ214" t="inlineStr"/>
+      <c r="AK214" t="inlineStr"/>
+      <c r="AL214" t="inlineStr"/>
+      <c r="AM214" t="inlineStr"/>
+      <c r="AN214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>vocab:1192</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>has research institution country</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
+      <c r="Z215" t="inlineStr"/>
+      <c r="AA215" t="inlineStr"/>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+      <c r="AD215" t="inlineStr"/>
+      <c r="AE215" t="inlineStr"/>
+      <c r="AF215" t="inlineStr"/>
+      <c r="AG215" t="inlineStr"/>
+      <c r="AH215" t="inlineStr"/>
+      <c r="AI215" t="inlineStr"/>
+      <c r="AJ215" t="inlineStr"/>
+      <c r="AK215" t="inlineStr"/>
+      <c r="AL215" t="inlineStr"/>
+      <c r="AM215" t="inlineStr"/>
+      <c r="AN215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>vocab:1193</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>has research institution region</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
+      <c r="Z216" t="inlineStr"/>
+      <c r="AA216" t="inlineStr"/>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+      <c r="AD216" t="inlineStr"/>
+      <c r="AE216" t="inlineStr"/>
+      <c r="AF216" t="inlineStr"/>
+      <c r="AG216" t="inlineStr"/>
+      <c r="AH216" t="inlineStr"/>
+      <c r="AI216" t="inlineStr"/>
+      <c r="AJ216" t="inlineStr"/>
+      <c r="AK216" t="inlineStr"/>
+      <c r="AL216" t="inlineStr"/>
+      <c r="AM216" t="inlineStr"/>
+      <c r="AN216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>vocab:1194</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>has research institution subregion</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr"/>
+      <c r="AA217" t="inlineStr"/>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+      <c r="AD217" t="inlineStr"/>
+      <c r="AE217" t="inlineStr"/>
+      <c r="AF217" t="inlineStr"/>
+      <c r="AG217" t="inlineStr"/>
+      <c r="AH217" t="inlineStr"/>
+      <c r="AI217" t="inlineStr"/>
+      <c r="AJ217" t="inlineStr"/>
+      <c r="AK217" t="inlineStr"/>
+      <c r="AL217" t="inlineStr"/>
+      <c r="AM217" t="inlineStr"/>
+      <c r="AN217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>vocab:1195</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>has partner organisation id</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="inlineStr"/>
+      <c r="AF218" t="inlineStr"/>
+      <c r="AG218" t="inlineStr"/>
+      <c r="AH218" t="inlineStr"/>
+      <c r="AI218" t="inlineStr"/>
+      <c r="AJ218" t="inlineStr"/>
+      <c r="AK218" t="inlineStr"/>
+      <c r="AL218" t="inlineStr"/>
+      <c r="AM218" t="inlineStr"/>
+      <c r="AN218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>vocab:1196</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>has partner organisation name</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
+      <c r="Z219" t="inlineStr"/>
+      <c r="AA219" t="inlineStr"/>
+      <c r="AB219" t="inlineStr"/>
+      <c r="AC219" t="inlineStr"/>
+      <c r="AD219" t="inlineStr"/>
+      <c r="AE219" t="inlineStr"/>
+      <c r="AF219" t="inlineStr"/>
+      <c r="AG219" t="inlineStr"/>
+      <c r="AH219" t="inlineStr"/>
+      <c r="AI219" t="inlineStr"/>
+      <c r="AJ219" t="inlineStr"/>
+      <c r="AK219" t="inlineStr"/>
+      <c r="AL219" t="inlineStr"/>
+      <c r="AM219" t="inlineStr"/>
+      <c r="AN219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>vocab:1197</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>has partner organisation rorid</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr"/>
+      <c r="Z220" t="inlineStr"/>
+      <c r="AA220" t="inlineStr"/>
+      <c r="AB220" t="inlineStr"/>
+      <c r="AC220" t="inlineStr"/>
+      <c r="AD220" t="inlineStr"/>
+      <c r="AE220" t="inlineStr"/>
+      <c r="AF220" t="inlineStr"/>
+      <c r="AG220" t="inlineStr"/>
+      <c r="AH220" t="inlineStr"/>
+      <c r="AI220" t="inlineStr"/>
+      <c r="AJ220" t="inlineStr"/>
+      <c r="AK220" t="inlineStr"/>
+      <c r="AL220" t="inlineStr"/>
+      <c r="AM220" t="inlineStr"/>
+      <c r="AN220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>vocab:1198</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>has partner organisation country</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr"/>
+      <c r="AA221" t="inlineStr"/>
+      <c r="AB221" t="inlineStr"/>
+      <c r="AC221" t="inlineStr"/>
+      <c r="AD221" t="inlineStr"/>
+      <c r="AE221" t="inlineStr"/>
+      <c r="AF221" t="inlineStr"/>
+      <c r="AG221" t="inlineStr"/>
+      <c r="AH221" t="inlineStr"/>
+      <c r="AI221" t="inlineStr"/>
+      <c r="AJ221" t="inlineStr"/>
+      <c r="AK221" t="inlineStr"/>
+      <c r="AL221" t="inlineStr"/>
+      <c r="AM221" t="inlineStr"/>
+      <c r="AN221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>vocab:1199</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>has partner organisation region</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr"/>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr"/>
+      <c r="AB222" t="inlineStr"/>
+      <c r="AC222" t="inlineStr"/>
+      <c r="AD222" t="inlineStr"/>
+      <c r="AE222" t="inlineStr"/>
+      <c r="AF222" t="inlineStr"/>
+      <c r="AG222" t="inlineStr"/>
+      <c r="AH222" t="inlineStr"/>
+      <c r="AI222" t="inlineStr"/>
+      <c r="AJ222" t="inlineStr"/>
+      <c r="AK222" t="inlineStr"/>
+      <c r="AL222" t="inlineStr"/>
+      <c r="AM222" t="inlineStr"/>
+      <c r="AN222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>vocab:1200</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>has research category id</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+      <c r="AE223" t="inlineStr"/>
+      <c r="AF223" t="inlineStr"/>
+      <c r="AG223" t="inlineStr"/>
+      <c r="AH223" t="inlineStr"/>
+      <c r="AI223" t="inlineStr"/>
+      <c r="AJ223" t="inlineStr"/>
+      <c r="AK223" t="inlineStr"/>
+      <c r="AL223" t="inlineStr"/>
+      <c r="AM223" t="inlineStr"/>
+      <c r="AN223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>vocab:1201</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>has primary research Cat</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="inlineStr"/>
+      <c r="AF224" t="inlineStr"/>
+      <c r="AG224" t="inlineStr"/>
+      <c r="AH224" t="inlineStr"/>
+      <c r="AI224" t="inlineStr"/>
+      <c r="AJ224" t="inlineStr"/>
+      <c r="AK224" t="inlineStr"/>
+      <c r="AL224" t="inlineStr"/>
+      <c r="AM224" t="inlineStr"/>
+      <c r="AN224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>vocab:1202</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>has research Cat</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr"/>
+      <c r="AF225" t="inlineStr"/>
+      <c r="AG225" t="inlineStr"/>
+      <c r="AH225" t="inlineStr"/>
+      <c r="AI225" t="inlineStr"/>
+      <c r="AJ225" t="inlineStr"/>
+      <c r="AK225" t="inlineStr"/>
+      <c r="AL225" t="inlineStr"/>
+      <c r="AM225" t="inlineStr"/>
+      <c r="AN225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>vocab:1203</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>has primary research subcat</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr"/>
+      <c r="AG226" t="inlineStr"/>
+      <c r="AH226" t="inlineStr"/>
+      <c r="AI226" t="inlineStr"/>
+      <c r="AJ226" t="inlineStr"/>
+      <c r="AK226" t="inlineStr"/>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr"/>
+      <c r="AN226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>vocab:1204</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>has research subcat</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="inlineStr"/>
+      <c r="AF227" t="inlineStr"/>
+      <c r="AG227" t="inlineStr"/>
+      <c r="AH227" t="inlineStr"/>
+      <c r="AI227" t="inlineStr"/>
+      <c r="AJ227" t="inlineStr"/>
+      <c r="AK227" t="inlineStr"/>
+      <c r="AL227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr"/>
+      <c r="AN227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>vocab:1205</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>has policy roadmap</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="inlineStr"/>
+      <c r="AF228" t="inlineStr"/>
+      <c r="AG228" t="inlineStr"/>
+      <c r="AH228" t="inlineStr"/>
+      <c r="AI228" t="inlineStr"/>
+      <c r="AJ228" t="inlineStr"/>
+      <c r="AK228" t="inlineStr"/>
+      <c r="AL228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr"/>
+      <c r="AN228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>vocab:1206</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>has special tag</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr"/>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+      <c r="AE229" t="inlineStr"/>
+      <c r="AF229" t="inlineStr"/>
+      <c r="AG229" t="inlineStr"/>
+      <c r="AH229" t="inlineStr"/>
+      <c r="AI229" t="inlineStr"/>
+      <c r="AJ229" t="inlineStr"/>
+      <c r="AK229" t="inlineStr"/>
+      <c r="AL229" t="inlineStr"/>
+      <c r="AM229" t="inlineStr"/>
+      <c r="AN229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-29T15:51:02+00:00</t>
+          <t>2023-08-30T15:11:55+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>new grant</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>repurposed</t>
+          <t>repurposed grant</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>supplemented</t>
+          <t>supplemented grant</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1958,7 +1958,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007,vocab:1015,vocab:1019,vocab:1032,vocab:1045,vocab:1073,vocab:1084,vocab:1094,vocab:1101,vocab:1104,vocab:1107</t>
+          <t>vocab:1000,vocab:1007,vocab:1015,vocab:1019,vocab:1032,vocab:1045,vocab:1072,vocab:1077,vocab:1089,vocab:1091,vocab:1094</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2012,7 +2012,7 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007,vocab:1015,vocab:1019,vocab:1032,vocab:1045,vocab:1053,vocab:1073,vocab:1101,vocab:1104,vocab:1107,vocab:1131</t>
+          <t>vocab:1000,vocab:1007,vocab:1015,vocab:1019,vocab:1032,vocab:1045,vocab:1053,vocab:1089,vocab:1091,vocab:1107,vocab:1119,vocab:1125,vocab:1128,vocab:113,vocab:1133,vocab:1135,vocab:1137</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2066,7 +2066,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1007,vocab:1015,vocab:1019,vocab:1032,vocab:1045,vocab:1053,vocab:1073,vocab:1084,vocab:1094,vocab:1107,vocab:1131</t>
+          <t>vocab:1000,vocab:1007,vocab:1015,vocab:1019,vocab:1032,vocab:1045,vocab:1053,vocab:1072,vocab:1077,vocab:1107,vocab:1119,vocab:1125,vocab:1128,vocab:113,vocab:1133,vocab:1135,vocab:1137</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>studys ubject</t>
+          <t>study subject</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>organism forms</t>
+          <t>organism other</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -4558,7 +4558,7 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>vocab:1045,vocab:1053,vocab:1084,vocab:1119,vocab:1131</t>
+          <t>vocab:1045,vocab:1053,vocab:1072,vocab:1106,vocab:1119,vocab:1125,vocab:1128,vocab:113,vocab:1133,vocab:1135,vocab:1137</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>clinical conference</t>
+          <t>clinical study</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>clinical study</t>
+          <t>clinical trial</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>clinical trial</t>
+          <t>comparative study</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>comparative study</t>
+          <t>consensus development conference</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>consensus development conference</t>
+          <t>evaluation study</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>evaluation study</t>
+          <t>meta-analysis</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>meta-analysis</t>
+          <t>multicenter study</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>multicenter study</t>
+          <t>scientific integrity review</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>scientific integrity review</t>
+          <t>systematic review</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>systematic review</t>
+          <t>validation study</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>validation study</t>
+          <t>observational study</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>observational study</t>
+          <t>biological specimen banks</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>biological specimen banks</t>
+          <t>policy report</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>policy report</t>
+          <t>study, design unspecified</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>study, design unspecified</t>
+          <t>review</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>laboratory work</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>laboratory work</t>
+          <t>secondary data analysis</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -5627,16 +5627,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>secondary data analysis</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>vocab:1053</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -5681,12 +5677,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>clinical trial phase</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>vocab:1072</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -5731,14 +5731,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>adaptive clinical trial</t>
+          <t>black</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1072</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5785,14 +5785,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>clinical trial, phase i</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1072</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -5839,14 +5839,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>clinical trial, phase ii</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1072</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -5893,16 +5893,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>clinical trial, phase iii</t>
+          <t>project information</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>vocab:1073</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -5947,14 +5943,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>clinical trial, phase iv</t>
+          <t>funding organisation name</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1077</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6001,14 +5997,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>controlled clinical trial</t>
+          <t>funder CrossRefID</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1077</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -6055,14 +6051,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>randomized controlled trial</t>
+          <t>funder acronym</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1077</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -6109,14 +6105,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>clinical trial protocol</t>
+          <t>country</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1077,vocab:1089,vocab:1091,vocab:1093</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -6163,14 +6159,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>clinical trial, veterinary</t>
+          <t>regions</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1077</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -6217,14 +6213,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>randomized controlled trial, veterinary</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1082</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -6271,12 +6267,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>Americas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>vocab:1082</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -6321,14 +6321,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>asian</t>
+          <t>South-East Asia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>vocab:1084</t>
+          <t>vocab:1082</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -6375,14 +6375,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>vocab:1084</t>
+          <t>vocab:1082</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -6429,14 +6429,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Eastern Mediterranean</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>vocab:1084</t>
+          <t>vocab:1082</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -6483,14 +6483,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>Western Pacific</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>vocab:1084</t>
+          <t>vocab:1082</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>project information</t>
+          <t>partner organisation</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>funding organization name</t>
+          <t>partner organisation name</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -6641,16 +6641,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>funder CrossRefID</t>
+          <t>research institution</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>vocab:1089</t>
-        </is>
-      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -6695,14 +6691,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>funder acronym</t>
+          <t>research institution name</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>vocab:1089</t>
+          <t>vocab:1091</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -6749,16 +6745,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>research site</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>vocab:1089</t>
-        </is>
-      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -6803,16 +6795,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>regions</t>
+          <t>WHO GH Observatory Framework</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>vocab:1089</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -6857,7 +6845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>africa</t>
+          <t>cause</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -6911,7 +6899,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>americas</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -6965,7 +6953,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>south-east asia</t>
+          <t>drug development</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -7019,7 +7007,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>europe</t>
+          <t>diagnostics/screening</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -7073,7 +7061,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>eastern mediterranean</t>
+          <t>device</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -7127,7 +7115,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>western pacific</t>
+          <t>vaccine</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -7181,12 +7169,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>partner organization</t>
+          <t>vector control</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -7231,14 +7223,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>partner organization name</t>
+          <t>basic Science</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1094</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -7285,14 +7277,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>partner organization country</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1094</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -7339,12 +7331,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>research institution</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -7389,14 +7385,14 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>research institution name</t>
+          <t>no research category assigned</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>vocab:1104</t>
+          <t>vocab:1094</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -7443,16 +7439,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>research institution country</t>
+          <t>disease</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>vocab:1104</t>
-        </is>
-      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
@@ -7497,14 +7489,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>WHO GHO bservatory Framework</t>
+          <t>COVID-19</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>vocab:1106</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10270</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -7547,14 +7547,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>cause</t>
+          <t>Crimean-Congo haemorrhagic fever</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -7601,14 +7601,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>Ebola virus disease</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -7655,14 +7655,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>drug development</t>
+          <t>Marburg virus disease</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -7709,14 +7709,14 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>diagnostics/screening</t>
+          <t>Lassa fever</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -7763,14 +7763,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>device</t>
+          <t>Middle East Respiratory Syndrome Coronavirus (MERS-CoV)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -7817,14 +7817,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>vaccine</t>
+          <t>Severe Acute Respiratory Syndrome (SARS)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -7871,14 +7871,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>vector control</t>
+          <t>Nipah and henipaviral disease</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -7925,14 +7925,14 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>basic Science</t>
+          <t>Rift Valley Fever</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -7979,14 +7979,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>Zika</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -8033,14 +8033,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>Congenital Zika virus disease</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -8087,16 +8087,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>no research category assigned</t>
+          <t>pathogens</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>vocab:1107</t>
-        </is>
-      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -8141,12 +8137,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>disease</t>
+          <t>Coronavirus</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>vocab:1118</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>COVID-19</t>
+          <t>SARS-CoV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -8202,11 +8202,7 @@
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/covid19/10270</t>
-        </is>
-      </c>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -8249,7 +8245,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Crimean-Congo haemorrhagic fever</t>
+          <t>SARSr-CoV</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -8303,7 +8299,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ebola virus disease</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -8314,7 +8310,11 @@
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/10269</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Marburg virus disease</t>
+          <t>SARS-CoV-1</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lassa fever</t>
+          <t>MERS-CoV</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -8465,14 +8465,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Middle East Respiratory Syndrome Coronavirus (MERS-CoV)</t>
+          <t>Bunyaviridae</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1118</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -8519,14 +8519,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Severe Acute Respiratory Syndrome (SARS)</t>
+          <t>Crimean-Congo haemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1125</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -8573,14 +8573,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nipah and henipaviral disease</t>
+          <t>Rift Valley Fever virus</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1125</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -8627,14 +8627,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Rift Valley Fever</t>
+          <t>Filoviridae</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1118</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -8681,14 +8681,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Zika</t>
+          <t>Ebola Virus</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1128</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -8735,14 +8735,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Congenital Zika virus disease</t>
+          <t>Marburg virus</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1128</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -8789,12 +8789,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>pathogens</t>
+          <t>Arenaviridae</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>vocab:1118</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
@@ -8839,7 +8843,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Coronavirus</t>
+          <t>Lassa fever virus</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -8893,14 +8897,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SARS-CoV</t>
+          <t>Henipavirus</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>vocab:1131</t>
+          <t>vocab:1118</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -8947,14 +8951,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SARSr-CoV</t>
+          <t>Nipah virus</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>vocab:1131</t>
+          <t>vocab:1133</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -9001,22 +9005,18 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Flaviviridae</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>vocab:1131</t>
+          <t>vocab:1118</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/covid19/10269</t>
-        </is>
-      </c>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -9059,14 +9059,14 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SARS-CoV-1</t>
+          <t>Zika virus</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>vocab:1131</t>
+          <t>vocab:1135</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -9113,14 +9113,14 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MERS-CoV</t>
+          <t>Influenza A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>vocab:1131</t>
+          <t>vocab:1118</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -9167,12 +9167,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>investigator</t>
+          <t>Pandemic influenza A (H1N1)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>vocab:1137</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
@@ -9217,16 +9221,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>investigator identification</t>
+          <t>investigator</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>vocab:1138</t>
-        </is>
-      </c>
+      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
@@ -9278,7 +9278,7 @@
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>vocab:1138</t>
+          <t>vocab:1139</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -9332,7 +9332,7 @@
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>vocab:1138</t>
+          <t>vocab:1139</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>vocab:1138</t>
+          <t>vocab:1139</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN229"/>
+  <dimension ref="A1:AN234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-30T15:11:55+00:00</t>
+          <t>2023-08-30T15:48:08+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>vocab:1045,vocab:1053,vocab:1072,vocab:1106,vocab:1119,vocab:1125,vocab:1128,vocab:113,vocab:1133,vocab:1135,vocab:1137</t>
+          <t>vocab:1045,vocab:1053,vocab:1072,vocab:1106,vocab:1119,vocab:1125,vocab:1128,vocab:113,vocab:1133,vocab:1135,vocab:1137,vocab:1207</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -12885,6 +12885,272 @@
       <c r="AM229" t="inlineStr"/>
       <c r="AN229" t="inlineStr"/>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>special tag</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr"/>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
+      <c r="AE230" t="inlineStr"/>
+      <c r="AF230" t="inlineStr"/>
+      <c r="AG230" t="inlineStr"/>
+      <c r="AH230" t="inlineStr"/>
+      <c r="AI230" t="inlineStr"/>
+      <c r="AJ230" t="inlineStr"/>
+      <c r="AK230" t="inlineStr"/>
+      <c r="AL230" t="inlineStr"/>
+      <c r="AM230" t="inlineStr"/>
+      <c r="AN230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>vocab:1208</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr"/>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+      <c r="AB231" t="inlineStr"/>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr"/>
+      <c r="AE231" t="inlineStr"/>
+      <c r="AF231" t="inlineStr"/>
+      <c r="AG231" t="inlineStr"/>
+      <c r="AH231" t="inlineStr"/>
+      <c r="AI231" t="inlineStr"/>
+      <c r="AJ231" t="inlineStr"/>
+      <c r="AK231" t="inlineStr"/>
+      <c r="AL231" t="inlineStr"/>
+      <c r="AM231" t="inlineStr"/>
+      <c r="AN231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>vocab:1209</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>innovation</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr"/>
+      <c r="Z232" t="inlineStr"/>
+      <c r="AA232" t="inlineStr"/>
+      <c r="AB232" t="inlineStr"/>
+      <c r="AC232" t="inlineStr"/>
+      <c r="AD232" t="inlineStr"/>
+      <c r="AE232" t="inlineStr"/>
+      <c r="AF232" t="inlineStr"/>
+      <c r="AG232" t="inlineStr"/>
+      <c r="AH232" t="inlineStr"/>
+      <c r="AI232" t="inlineStr"/>
+      <c r="AJ232" t="inlineStr"/>
+      <c r="AK232" t="inlineStr"/>
+      <c r="AL232" t="inlineStr"/>
+      <c r="AM232" t="inlineStr"/>
+      <c r="AN232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>vocab:1210</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>digital health</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr"/>
+      <c r="Z233" t="inlineStr"/>
+      <c r="AA233" t="inlineStr"/>
+      <c r="AB233" t="inlineStr"/>
+      <c r="AC233" t="inlineStr"/>
+      <c r="AD233" t="inlineStr"/>
+      <c r="AE233" t="inlineStr"/>
+      <c r="AF233" t="inlineStr"/>
+      <c r="AG233" t="inlineStr"/>
+      <c r="AH233" t="inlineStr"/>
+      <c r="AI233" t="inlineStr"/>
+      <c r="AJ233" t="inlineStr"/>
+      <c r="AK233" t="inlineStr"/>
+      <c r="AL233" t="inlineStr"/>
+      <c r="AM233" t="inlineStr"/>
+      <c r="AN233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>vocab:1211</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>data management and data sharing</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr"/>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+      <c r="AB234" t="inlineStr"/>
+      <c r="AC234" t="inlineStr"/>
+      <c r="AD234" t="inlineStr"/>
+      <c r="AE234" t="inlineStr"/>
+      <c r="AF234" t="inlineStr"/>
+      <c r="AG234" t="inlineStr"/>
+      <c r="AH234" t="inlineStr"/>
+      <c r="AI234" t="inlineStr"/>
+      <c r="AJ234" t="inlineStr"/>
+      <c r="AK234" t="inlineStr"/>
+      <c r="AL234" t="inlineStr"/>
+      <c r="AM234" t="inlineStr"/>
+      <c r="AN234" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-30T15:48:08+00:00</t>
+          <t>2023-09-11T07:45:12+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-11T07:45:12+00:00</t>
+          <t>2023-11-23T17:41:37+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1750,11 +1750,31 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-11-23T17:41:37+00:00</t>
+          <t>2023-11-23T17:44:20+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1750,31 +1750,11 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-11-23T17:44:20+00:00</t>
+          <t>2023-11-23T18:09:45+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1750,13 +1750,41 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-11-23T18:09:45+00:00</t>
+          <t>2023-11-23T18:09:47+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1785,8 +1785,16 @@
           <t>test</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
